--- a/test/DBSheetsTestMSSQL.xlsx
+++ b/test/DBSheetsTestMSSQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\DBAddin.NET\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2007F2-DB42-4B21-83A6-921BD8584E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022E4851-059E-4973-9D92-237E6E7CBCC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="LSroysched" sheetId="9" state="hidden" r:id="rId8"/>
     <sheet name="roysched" sheetId="8" r:id="rId9"/>
     <sheet name="LStitleauthor" sheetId="11" state="hidden" r:id="rId10"/>
-    <sheet name="b368a3dd6ec44ad6b0ff6e1b5d9d47c" sheetId="15" state="hidden" r:id="rId11"/>
+    <sheet name="LSsales" sheetId="15" state="hidden" r:id="rId11"/>
     <sheet name="sales" sheetId="14" r:id="rId12"/>
     <sheet name="titleauthor" sheetId="10" r:id="rId13"/>
     <sheet name="LStitles" sheetId="13" state="hidden" r:id="rId14"/>
@@ -38,7 +38,7 @@
     <definedName name="DBFsource2517e42db6d745919f56c8af78e36649" hidden="1">LStitles!$B$1</definedName>
     <definedName name="DBFsource2667b199dcf74132bf39cc670625fd17" hidden="1">titleauthor!$A$1</definedName>
     <definedName name="DBFsource6d3053372ec04b5685ae1ae8b1ec3eb4" hidden="1">roysched!$A$1</definedName>
-    <definedName name="DBFsource9444f24f32684e17951052ebf4950abb" hidden="1">b368a3dd6ec44ad6b0ff6e1b5d9d47c!$C$1</definedName>
+    <definedName name="DBFsource9444f24f32684e17951052ebf4950abb" hidden="1">LSsales!$C$1</definedName>
     <definedName name="DBFsource992c0b939c834927b5b4be12e7c5f3bc" hidden="1">#REF!</definedName>
     <definedName name="DBFsource9dcfa89545974284a4e8215f57a7dc41" hidden="1">discounts!$A$1</definedName>
     <definedName name="DBFsourceafaeef3da22240e7856064ff43f8d6d8" hidden="1">publishers!$A$1</definedName>
@@ -48,33 +48,33 @@
     <definedName name="DBFsourced71aa659a0864d838c2b664cc128979b" hidden="1">LSroysched!$A$1</definedName>
     <definedName name="DBFsourced7f34f9f057d494fa071dbec688c6080" hidden="1">authors!$A$1</definedName>
     <definedName name="DBFsourcedc77197d6da141ce80332f033e31f791" hidden="1">titles!$A$1</definedName>
-    <definedName name="DBFsourcedf6827daae9247819721166790c967f4" hidden="1">b368a3dd6ec44ad6b0ff6e1b5d9d47c!$A$1</definedName>
+    <definedName name="DBFsourcedf6827daae9247819721166790c967f4" hidden="1">LSsales!$A$1</definedName>
     <definedName name="DBFsourcee6eb8d79946a4d6f8ace0a53c821007e" hidden="1">sales!$A$1</definedName>
     <definedName name="DBFsourcef29a24267b8d48e484d50125828ea001" hidden="1">LStitleauthor!$A$1</definedName>
     <definedName name="DBFsourcef4ff6127b9e24ce29b99ad13e11762a6" hidden="1">LSemployee!$A$1</definedName>
-    <definedName name="DBFtarget008b1f5c6c9e4da4bb8c477f6a375b1a" hidden="1">b368a3dd6ec44ad6b0ff6e1b5d9d47c!$A$2:$B$7</definedName>
+    <definedName name="DBFtarget008b1f5c6c9e4da4bb8c477f6a375b1a" hidden="1">LSsales!$A$2:$B$7</definedName>
     <definedName name="DBFtarget048386b80dec4e9d87cf9513847ac5db" hidden="1">#REF!</definedName>
-    <definedName name="DBFtarget16088adc084140e59ac953b64c5809af" hidden="1">b368a3dd6ec44ad6b0ff6e1b5d9d47c!$C$2:$D$18</definedName>
+    <definedName name="DBFtarget16088adc084140e59ac953b64c5809af" hidden="1">LSsales!$C$2:$D$18</definedName>
     <definedName name="DBFtarget2517e42db6d745919f56c8af78e36649" hidden="1">LStitles!$B$2:$C$9</definedName>
     <definedName name="DBFtarget2667b199dcf74132bf39cc670625fd17" hidden="1">titleauthor!$B$1:$G$25</definedName>
     <definedName name="DBFtarget6d3053372ec04b5685ae1ae8b1ec3eb4" hidden="1">roysched!$B$1:$F$87</definedName>
-    <definedName name="DBFtarget9444f24f32684e17951052ebf4950abb" hidden="1">b368a3dd6ec44ad6b0ff6e1b5d9d47c!$C$2:$D$18</definedName>
+    <definedName name="DBFtarget9444f24f32684e17951052ebf4950abb" hidden="1">LSsales!$C$2:$D$18</definedName>
     <definedName name="DBFtarget992c0b939c834927b5b4be12e7c5f3bc" hidden="1">#REF!</definedName>
     <definedName name="DBFtarget9dcfa89545974284a4e8215f57a7dc41" hidden="1">discounts!$B$1:$G$4</definedName>
     <definedName name="DBFtargetafaeef3da22240e7856064ff43f8d6d8" hidden="1">publishers!$B$1:$F$9</definedName>
-    <definedName name="DBFtargetb648a6b572ea4b258d6eddefa1f1a1a2" hidden="1">employee!$B$1:$J$44</definedName>
+    <definedName name="DBFtargetb648a6b572ea4b258d6eddefa1f1a1a2" hidden="1">employee!$B$1:$J$48</definedName>
     <definedName name="DBFtargetba58cf4be2a54e63af8d36a10a2307ca" hidden="1">jobs!$B$1:$E$15</definedName>
     <definedName name="DBFtargetbbf44909fbc248689a82885fda31d908" hidden="1">LStitles!$B$2:$C$9</definedName>
-    <definedName name="DBFtargetd71aa659a0864d838c2b664cc128979b" hidden="1">b368a3dd6ec44ad6b0ff6e1b5d9d47c!$C$2:$D$18</definedName>
+    <definedName name="DBFtargetd71aa659a0864d838c2b664cc128979b" hidden="1">LSsales!$C$2:$D$18</definedName>
     <definedName name="DBFtargetd7f34f9f057d494fa071dbec688c6080" hidden="1">authors!$B$1:$J$24</definedName>
     <definedName name="DBFtargetdc77197d6da141ce80332f033e31f791" hidden="1">titles!$B$1:$L$18</definedName>
-    <definedName name="DBFtargetdf6827daae9247819721166790c967f4" hidden="1">b368a3dd6ec44ad6b0ff6e1b5d9d47c!$A$2:$B$7</definedName>
+    <definedName name="DBFtargetdf6827daae9247819721166790c967f4" hidden="1">LSsales!$A$2:$B$7</definedName>
     <definedName name="DBFtargete6eb8d79946a4d6f8ace0a53c821007e" hidden="1">sales!$B$1:$I$22</definedName>
     <definedName name="DBFtargetf29a24267b8d48e484d50125828ea001" hidden="1">LStitleauthor!$A$2:$B$24</definedName>
     <definedName name="DBFtargetf4ff6127b9e24ce29b99ad13e11762a6" hidden="1">LSemployee!$A$2:$B$15</definedName>
     <definedName name="DBMapperauthors">authors!$B$1:$J$24</definedName>
     <definedName name="DBMapperdiscounts">discounts!$B$1:$G$4</definedName>
-    <definedName name="DBMapperemployee">employee!$B$1:$J$44</definedName>
+    <definedName name="DBMapperemployee">employee!$B$1:$J$48</definedName>
     <definedName name="DBMapperjobs">jobs!$B$1:$E$15</definedName>
     <definedName name="DBMapperpublishers">publishers!$B$1:$F$9</definedName>
     <definedName name="DBMapperpubs.dbo.sales">sales!$B$1:$I$22</definedName>
@@ -83,7 +83,7 @@
     <definedName name="DBMappertitles">titles!$B$1:$L$18</definedName>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">authors!$B$1:$J$24</definedName>
     <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">discounts!$B$1:$F$4</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="4" hidden="1">employee!$B$1:$H$44</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="4" hidden="1">employee!$B$1:$H$48</definedName>
     <definedName name="ExterneDaten_1" localSheetId="5" hidden="1">jobs!$B$1:$E$15</definedName>
     <definedName name="ExterneDaten_1" localSheetId="6" hidden="1">publishers!$B$1:$F$9</definedName>
     <definedName name="ExterneDaten_1" localSheetId="8" hidden="1">roysched!$B$1:$E$87</definedName>
@@ -92,8 +92,8 @@
     <definedName name="ExterneDaten_1" localSheetId="14" hidden="1">titles!$B$1:$K$18</definedName>
     <definedName name="job_idLookup">LSemployee!$A$2:$B$15</definedName>
     <definedName name="pub_idLookup">LStitles!$B$2:$C$9</definedName>
-    <definedName name="stor_idLookup">b368a3dd6ec44ad6b0ff6e1b5d9d47c!$A$2:$B$7</definedName>
-    <definedName name="title_idLookup">b368a3dd6ec44ad6b0ff6e1b5d9d47c!$C$2:$D$18</definedName>
+    <definedName name="stor_idLookup">LSsales!$A$2:$B$7</definedName>
+    <definedName name="title_idLookup">LSsales!$C$2:$D$18</definedName>
     <definedName name="typeLookup">LStitles!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="543">
   <si>
     <t xml:space="preserve">SELECT T1.au_id, T1.au_lname, T1.au_fname, T1.phone, T1.address, T1.city, T1.state, T1.zip, T1.contract_x000D_
 FROM pubs.dbo.authors T1 _x000D_
@@ -1381,9 +1381,6 @@
     <t>PS2106</t>
   </si>
   <si>
-    <t>PC9999</t>
-  </si>
-  <si>
     <t>Onions, Leeks, and Garlic: Cooking Secrets of the Mediterranean/Binnet &amp; Hardley</t>
   </si>
   <si>
@@ -1556,9 +1553,6 @@
     <t>Life Without Fear</t>
   </si>
   <si>
-    <t>Net Etiquette</t>
-  </si>
-  <si>
     <t>Onions, Leeks, and Garlic: Cooking Secrets of the Mediterranean</t>
   </si>
   <si>
@@ -1688,16 +1682,10 @@
     <t>Detailed instructions on how to make authentic Japanese sushi in your spare time.</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>Chief Executive Officer</t>
   </si>
   <si>
     <t>309 63rd St. #411</t>
-  </si>
-  <si>
-    <t>Mnchen</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT T2.stor_name AS stor_idLU, T1.ord_num, T1.ord_date, T1.qty, T1.payterms, T7.title AS title_idLU_x000D_
@@ -1780,6 +1768,42 @@
   </si>
   <si>
     <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>PMA42628M</t>
+  </si>
+  <si>
+    <t>DZT39435M</t>
+  </si>
+  <si>
+    <t>iouiz</t>
+  </si>
+  <si>
+    <t>iuziuz</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>DZT39436F</t>
+  </si>
+  <si>
+    <t>ttt</t>
+  </si>
+  <si>
+    <t>rtzrfh</t>
+  </si>
+  <si>
+    <t>DBT39435F</t>
+  </si>
+  <si>
+    <t>swer</t>
+  </si>
+  <si>
+    <t>München</t>
   </si>
 </sst>
 </file>
@@ -3316,7 +3340,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle_ExterneDaten_14" displayName="Tabelle_ExterneDaten_14" ref="B1:J44" tableType="queryTable" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle_ExterneDaten_14" displayName="Tabelle_ExterneDaten_14" ref="B1:J48" tableType="queryTable" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <tableColumns count="9">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="emp_id" queryTableFieldId="2" dataDxfId="59"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="fname" queryTableFieldId="3" dataDxfId="58"/>
@@ -3698,6 +3722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3710,7 +3735,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
@@ -3837,7 +3862,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
@@ -4472,6 +4497,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4484,19 +4510,19 @@
         <v>Env:MSSQL, (last result:)Retrieved 23 records from: SELECT T1.au_lname + ' ' + T1.au_fname au_id,T1.au_id FROM pubs.dbo.authors T1 ORDER BY T1.au_lname</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1" t="str">
         <f>_xll.DBListFetch(D1,"",title_idLookup)</f>
         <v>Env:MSSQL, (last result:)Retrieved 17 records from: SELECT title,title_id FROM pubs.dbo.titles ORDER BY title</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -4504,7 +4530,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -4512,7 +4538,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -4520,7 +4546,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s">
         <v>109</v>
@@ -4528,7 +4554,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
         <v>101</v>
@@ -4536,7 +4562,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -4544,7 +4570,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -4552,7 +4578,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -4560,7 +4586,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -4568,7 +4594,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
         <v>141</v>
@@ -4576,7 +4602,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
         <v>128</v>
@@ -4584,7 +4610,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -4592,7 +4618,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -4600,7 +4626,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B15" t="s">
         <v>144</v>
@@ -4608,7 +4634,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -4616,7 +4642,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B17" t="s">
         <v>133</v>
@@ -4624,7 +4650,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B18" t="s">
         <v>159</v>
@@ -4632,7 +4658,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B19" t="s">
         <v>151</v>
@@ -4640,7 +4666,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
@@ -4648,7 +4674,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -4656,7 +4682,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B22" t="s">
         <v>117</v>
@@ -4664,7 +4690,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -4672,7 +4698,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B24" t="s">
         <v>94</v>
@@ -4685,9 +4711,12 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD134784-0593-4A30-A7DE-A828677A326F}">
+  <sheetPr codeName="Tabelle11"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4704,7 +4733,7 @@
         <v>Env:MSSQL, (last result:)Retrieved 17 records from: SELECT title,title_id FROM pubs.dbo.titles ORDER BY title</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4715,10 +4744,10 @@
         <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,10 +4758,10 @@
         <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4743,10 +4772,10 @@
         <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,10 +4786,10 @@
         <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4771,10 +4800,10 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4785,98 +4814,98 @@
         <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4886,13 +4915,14 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE1A2A5-8455-4488-BB08-CAF73C694F74}">
+  <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4919,36 +4949,36 @@
         <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>183</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D2" s="4">
         <v>34591</v>
@@ -4957,10 +4987,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H2" s="3" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -4976,7 +5006,7 @@
         <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D3" s="4">
         <v>34590</v>
@@ -4985,10 +5015,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5004,7 +5034,7 @@
         <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D4" s="4">
         <v>34591</v>
@@ -5013,10 +5043,10 @@
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5032,7 +5062,7 @@
         <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D5" s="4">
         <v>34590</v>
@@ -5041,10 +5071,10 @@
         <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H5" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5060,7 +5090,7 @@
         <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D6" s="4">
         <v>34591</v>
@@ -5069,10 +5099,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H6" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5088,7 +5118,7 @@
         <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D7" s="4">
         <v>33770</v>
@@ -5097,10 +5127,10 @@
         <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H7" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5116,7 +5146,7 @@
         <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D8" s="4">
         <v>33770</v>
@@ -5125,10 +5155,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H8" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5144,7 +5174,7 @@
         <v>173</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D9" s="4">
         <v>33770</v>
@@ -5153,10 +5183,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H9" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5172,7 +5202,7 @@
         <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D10" s="4">
         <v>34591</v>
@@ -5181,10 +5211,10 @@
         <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H10" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5200,7 +5230,7 @@
         <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D11" s="4">
         <v>34591</v>
@@ -5209,10 +5239,10 @@
         <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5228,7 +5258,7 @@
         <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D12" s="4">
         <v>34118</v>
@@ -5237,10 +5267,10 @@
         <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5256,7 +5286,7 @@
         <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D13" s="4">
         <v>34118</v>
@@ -5265,10 +5295,10 @@
         <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H13" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5284,7 +5314,7 @@
         <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D14" s="4">
         <v>34118</v>
@@ -5293,10 +5323,10 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H14" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5312,7 +5342,7 @@
         <v>167</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D15" s="4">
         <v>34118</v>
@@ -5321,10 +5351,10 @@
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H15" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5340,7 +5370,7 @@
         <v>171</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D16" s="4">
         <v>34270</v>
@@ -5349,10 +5379,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5368,7 +5398,7 @@
         <v>171</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D17" s="4">
         <v>34315</v>
@@ -5377,10 +5407,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H17" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5396,7 +5426,7 @@
         <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D18" s="4">
         <v>34021</v>
@@ -5405,10 +5435,10 @@
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H18" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5424,7 +5454,7 @@
         <v>165</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D19" s="4">
         <v>34591</v>
@@ -5433,10 +5463,10 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H19" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5452,7 +5482,7 @@
         <v>165</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D20" s="4">
         <v>33770</v>
@@ -5461,10 +5491,10 @@
         <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H20" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5480,7 +5510,7 @@
         <v>165</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D21" s="4">
         <v>34039</v>
@@ -5489,10 +5519,10 @@
         <v>25</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H21" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5508,7 +5538,7 @@
         <v>165</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D22" s="4">
         <v>34111</v>
@@ -5517,10 +5547,10 @@
         <v>30</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H22" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
@@ -5549,6 +5579,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Tabelle13"/>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -5576,33 +5607,33 @@
 </v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -5621,10 +5652,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -5643,10 +5674,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -5665,10 +5696,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -5687,10 +5718,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -5709,10 +5740,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -5731,10 +5762,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -5753,10 +5784,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -5775,10 +5806,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -5797,10 +5828,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -5819,10 +5850,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -5841,10 +5872,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -5863,10 +5894,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -5885,10 +5916,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -5907,10 +5938,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -5929,10 +5960,10 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -5951,10 +5982,10 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -5973,10 +6004,10 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -5995,10 +6026,10 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -6017,10 +6048,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -6039,10 +6070,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -6061,10 +6092,10 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -6083,10 +6114,10 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -6105,10 +6136,10 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -6144,6 +6175,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Tabelle14"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6156,12 +6188,12 @@
         <v>Env:MSSQL, (last result:)Retrieved 8 records from: SELECT pub_name,pub_id FROM pubs.dbo.publishers ORDER BY pub_name</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>214</v>
@@ -6172,7 +6204,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>212</v>
@@ -6183,7 +6215,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>210</v>
@@ -6194,7 +6226,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>208</v>
@@ -6205,7 +6237,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>206</v>
@@ -6245,10 +6277,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Tabelle15"/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6276,34 +6309,34 @@
 </v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>367</v>
@@ -6311,16 +6344,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>214</v>
@@ -6338,7 +6371,7 @@
         <v>4095</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K2" s="4">
         <v>33401</v>
@@ -6353,10 +6386,10 @@
         <v>396</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>214</v>
@@ -6374,7 +6407,7 @@
         <v>3876</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K3" s="4">
         <v>33398</v>
@@ -6386,13 +6419,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>204</v>
@@ -6410,7 +6443,7 @@
         <v>18722</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K4" s="4">
         <v>33419</v>
@@ -6422,13 +6455,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>214</v>
@@ -6446,7 +6479,7 @@
         <v>4095</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K5" s="4">
         <v>33411</v>
@@ -6458,13 +6491,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>212</v>
@@ -6482,7 +6515,7 @@
         <v>2032</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K6" s="4">
         <v>33398</v>
@@ -6494,13 +6527,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>212</v>
@@ -6518,7 +6551,7 @@
         <v>22246</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K7" s="4">
         <v>33407</v>
@@ -6533,10 +6566,10 @@
         <v>392</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>214</v>
@@ -6554,7 +6587,7 @@
         <v>8780</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K8" s="4">
         <v>33419</v>
@@ -6566,13 +6599,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>214</v>
@@ -6590,7 +6623,7 @@
         <v>4095</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K9" s="4">
         <v>34497</v>
@@ -6605,10 +6638,10 @@
         <v>394</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>212</v>
@@ -6626,7 +6659,7 @@
         <v>375</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K10" s="4">
         <v>33532</v>
@@ -6641,10 +6674,10 @@
         <v>402</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>204</v>
@@ -6662,7 +6695,7 @@
         <v>2045</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K11" s="4">
         <v>33404</v>
@@ -6677,10 +6710,10 @@
         <v>404</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>204</v>
@@ -6698,7 +6731,7 @@
         <v>111</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K12" s="4">
         <v>33516</v>
@@ -6710,13 +6743,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>204</v>
@@ -6734,7 +6767,7 @@
         <v>4072</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K13" s="4">
         <v>33401</v>
@@ -6749,10 +6782,10 @@
         <v>398</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>204</v>
@@ -6770,7 +6803,7 @@
         <v>3336</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K14" s="4">
         <v>33401</v>
@@ -6782,13 +6815,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>212</v>
@@ -6806,7 +6839,7 @@
         <v>375</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K15" s="4">
         <v>33532</v>
@@ -6818,13 +6851,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>208</v>
@@ -6834,7 +6867,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K16" s="4">
         <v>33532</v>
@@ -6849,10 +6882,10 @@
         <v>400</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>212</v>
@@ -6870,7 +6903,7 @@
         <v>15096</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K17" s="4">
         <v>33532</v>
@@ -6882,13 +6915,13 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>212</v>
@@ -6906,7 +6939,7 @@
         <v>4095</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K18" s="4">
         <v>33401</v>
@@ -6934,6 +6967,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6956,6 +6990,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7069,6 +7104,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7181,7 +7217,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -7210,7 +7246,8 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J44"/>
+  <sheetPr codeName="Tabelle5"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -7284,17 +7321,17 @@
         <v>226</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G2" s="3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="3">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7303,91 +7340,91 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>228</v>
+        <v>531</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G3" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I3" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G4" s="2">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I4" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>505</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G5" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>212</v>
       </c>
       <c r="I5" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7396,29 +7433,27 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G6" s="2">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>212</v>
       </c>
       <c r="I6" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7427,58 +7462,58 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G7" s="2">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="I7" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9952</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>248</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G8" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>200</v>
       </c>
       <c r="I8" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7487,29 +7522,29 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G9" s="2">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>200</v>
       </c>
       <c r="I9" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7518,91 +7553,91 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G10" s="2">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="I10" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9952</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G11" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I11" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>9952</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G12" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>212</v>
       </c>
       <c r="I12" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7611,25 +7646,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G13" s="2">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I13" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
@@ -7637,557 +7672,559 @@
       </c>
       <c r="J13" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G14" s="2">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I14" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G15" s="2">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I15" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>276</v>
+        <v>532</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>278</v>
+        <v>534</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G16" s="2">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I16" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G17" s="2">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I17" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J17" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G18" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I18" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G19" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I19" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9901</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G20" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I20" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J20" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G21" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I21" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>9901</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G22" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I22" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J22" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>302</v>
+        <v>535</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G23" s="2">
         <v>77</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I23" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G24" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I24" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J24" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="E25" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G25" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I25" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J25" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G26" s="2">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I26" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J26" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1622</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>225</v>
+        <v>535</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G27" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I27" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J27" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G28" s="2">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I28" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G29" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I29" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J29" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>324</v>
+        <v>536</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G30" s="2">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="I30" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J30" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G31" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>214</v>
       </c>
       <c r="I31" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -8196,85 +8233,87 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E32" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G32" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="I32" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J32" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G33" s="2">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="I33" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J33" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1756</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>336</v>
+        <v>535</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>188</v>
+        <v>331</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G34" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I34" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
@@ -8282,185 +8321,187 @@
       </c>
       <c r="J34" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G35" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="I35" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J35" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>343</v>
+        <v>188</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G36" s="2">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I36" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J36" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G37" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I37" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J37" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G38" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I38" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J38" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>281</v>
+        <v>535</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G39" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I39" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>353</v>
+        <v>537</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>539</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G40" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>214</v>
       </c>
       <c r="I40" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J40" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -8469,29 +8510,29 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G41" s="2">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>204</v>
       </c>
       <c r="I41" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J41" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -8500,56 +8541,56 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G42" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I42" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J42" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>114</v>
+        <v>354</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G43" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I43" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
@@ -8557,46 +8598,170 @@
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G44" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I44" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J44" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
+        <v>0736</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="2">
+        <v>165</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I45" s="2">
+        <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
+        <v>10</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
+        <v>0736</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="2">
+        <v>77</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I46" s="2">
+        <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
+        <v>13</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
+        <v>0877</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" s="2">
+        <v>170</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I47" s="2">
+        <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
+        <v>9</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
+        <v>0736</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="2">
+        <v>77</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I48" s="2">
+        <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
+        <v>11</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
         <v>0877</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F48" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>OFFSET(job_idLookup,0,0,,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H44" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H48" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>OFFSET(pub_idLookup,0,0,,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8609,6 +8774,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8667,7 +8833,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
@@ -8854,6 +9020,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8990,7 +9157,7 @@
         <v>208</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -9039,6 +9206,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9061,6 +9229,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9087,19 +9256,19 @@
 </v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9107,7 +9276,7 @@
         <v>390</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -9129,7 +9298,7 @@
         <v xml:space="preserve">WHERE T1.lorange &gt;  and T1.hirange &lt; </v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C3" s="2">
         <v>5001</v>
@@ -9237,7 +9406,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -9255,7 +9424,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C10" s="2">
         <v>1001</v>
@@ -9273,7 +9442,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C11" s="2">
         <v>3001</v>
@@ -9291,7 +9460,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C12" s="2">
         <v>5001</v>
@@ -9309,7 +9478,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C13" s="2">
         <v>7001</v>
@@ -9327,7 +9496,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C14" s="2">
         <v>10001</v>
@@ -9345,7 +9514,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C15" s="2">
         <v>12001</v>
@@ -9363,7 +9532,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C16" s="2">
         <v>14001</v>
@@ -9525,7 +9694,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -9543,7 +9712,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C26" s="2">
         <v>1001</v>
@@ -9561,7 +9730,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C27" s="2">
         <v>2001</v>
@@ -9579,7 +9748,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C28" s="2">
         <v>4001</v>
@@ -9597,7 +9766,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C29" s="2">
         <v>6001</v>
@@ -9615,7 +9784,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C30" s="2">
         <v>8001</v>
@@ -9633,7 +9802,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C31" s="2">
         <v>10001</v>
@@ -9651,7 +9820,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C32" s="2">
         <v>12001</v>
@@ -9669,7 +9838,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -9687,7 +9856,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C34" s="2">
         <v>2001</v>
@@ -9705,7 +9874,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C35" s="2">
         <v>4001</v>
@@ -9723,7 +9892,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C36" s="2">
         <v>6001</v>
@@ -9741,7 +9910,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C37" s="2">
         <v>8001</v>
@@ -9759,7 +9928,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C38" s="2">
         <v>10001</v>
@@ -9777,7 +9946,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C39" s="2">
         <v>12001</v>
@@ -9795,7 +9964,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C40" s="2">
         <v>14001</v>
@@ -9813,7 +9982,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -9831,7 +10000,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C42" s="2">
         <v>5001</v>
@@ -9849,7 +10018,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C43" s="2">
         <v>10001</v>
@@ -9867,7 +10036,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C44" s="2">
         <v>15001</v>
@@ -9921,7 +10090,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -9939,7 +10108,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C48" s="2">
         <v>5001</v>
@@ -9957,7 +10126,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C49" s="2">
         <v>10001</v>
@@ -9975,7 +10144,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C50" s="2">
         <v>15001</v>
@@ -10137,7 +10306,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -10155,7 +10324,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2">
         <v>2001</v>
@@ -10173,7 +10342,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2">
         <v>4001</v>
@@ -10191,7 +10360,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C62" s="2">
         <v>8001</v>
@@ -10209,7 +10378,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C63" s="2">
         <v>12001</v>
@@ -10227,7 +10396,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C64" s="2">
         <v>20001</v>
@@ -10245,7 +10414,7 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -10263,7 +10432,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C66" s="2">
         <v>5001</v>
@@ -10281,7 +10450,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C67" s="2">
         <v>15001</v>
@@ -10425,7 +10594,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -10443,7 +10612,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C76" s="2">
         <v>5001</v>
@@ -10461,7 +10630,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C77" s="2">
         <v>10001</v>
@@ -10479,7 +10648,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C78" s="2">
         <v>15001</v>
@@ -10497,7 +10666,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C79" s="2">
         <v>20001</v>
@@ -10515,7 +10684,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C80" s="2">
         <v>25001</v>
@@ -10533,7 +10702,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C81" s="2">
         <v>30001</v>
@@ -10551,7 +10720,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C82" s="2">
         <v>35001</v>

--- a/test/DBSheetsTestMSSQL.xlsx
+++ b/test/DBSheetsTestMSSQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\DBAddin.NET\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022E4851-059E-4973-9D92-237E6E7CBCC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC25D6-C512-4696-92CF-7A21F22F6C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="1725" windowWidth="22095" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <definedName name="DBFtarget048386b80dec4e9d87cf9513847ac5db" hidden="1">#REF!</definedName>
     <definedName name="DBFtarget16088adc084140e59ac953b64c5809af" hidden="1">LSsales!$C$2:$D$18</definedName>
     <definedName name="DBFtarget2517e42db6d745919f56c8af78e36649" hidden="1">LStitles!$B$2:$C$9</definedName>
-    <definedName name="DBFtarget2667b199dcf74132bf39cc670625fd17" hidden="1">titleauthor!$B$1:$G$25</definedName>
+    <definedName name="DBFtarget2667b199dcf74132bf39cc670625fd17" hidden="1">titleauthor!$B$1:$G$26</definedName>
     <definedName name="DBFtarget6d3053372ec04b5685ae1ae8b1ec3eb4" hidden="1">roysched!$B$1:$F$87</definedName>
     <definedName name="DBFtarget9444f24f32684e17951052ebf4950abb" hidden="1">LSsales!$C$2:$D$18</definedName>
     <definedName name="DBFtarget992c0b939c834927b5b4be12e7c5f3bc" hidden="1">#REF!</definedName>
@@ -79,7 +79,7 @@
     <definedName name="DBMapperpublishers">publishers!$B$1:$F$9</definedName>
     <definedName name="DBMapperpubs.dbo.sales">sales!$B$1:$I$22</definedName>
     <definedName name="DBMapperroysched">roysched!$B$1:$F$87</definedName>
-    <definedName name="DBMappertitleauthor">titleauthor!$B$1:$G$25</definedName>
+    <definedName name="DBMappertitleauthor">titleauthor!$B$1:$G$26</definedName>
     <definedName name="DBMappertitles">titles!$B$1:$L$18</definedName>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">authors!$B$1:$J$24</definedName>
     <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">discounts!$B$1:$F$4</definedName>
@@ -88,7 +88,7 @@
     <definedName name="ExterneDaten_1" localSheetId="6" hidden="1">publishers!$B$1:$F$9</definedName>
     <definedName name="ExterneDaten_1" localSheetId="8" hidden="1">roysched!$B$1:$E$87</definedName>
     <definedName name="ExterneDaten_1" localSheetId="11" hidden="1">sales!$B$1:$G$22</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="12" hidden="1">titleauthor!$B$1:$E$25</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="12" hidden="1">titleauthor!$B$1:$E$26</definedName>
     <definedName name="ExterneDaten_1" localSheetId="14" hidden="1">titles!$B$1:$K$18</definedName>
     <definedName name="job_idLookup">LSemployee!$A$2:$B$15</definedName>
     <definedName name="pub_idLookup">LStitles!$B$2:$C$9</definedName>
@@ -116,37 +116,37 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Verbindung" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T1.au_id, T1.au_lname, T1.au_fname, T1.phone, T1.address, T1.city, T1.state, T1.zip, T1.contract_x000d__x000a_FROM pubs.dbo.authors T1 _x000d__x000a_"/>
+    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.au_id, T1.au_lname, T1.au_fname, T1.phone, T1.address, T1.city, T1.state, T1.zip, T1.contract_x000d__x000a_FROM pubs.dbo.authors T1 _x000d__x000a_"/>
   </connection>
   <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Verbindung1" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T1.discounttype, T3.stor_name AS stor_idLU, T1.lowqty, T1.highqty, T1.discount_x000d__x000a_FROM pubs.dbo.discounts T1 LEFT JOIN _x000d__x000a_pubs.dbo.stores T3 ON T1.stor_id = T3.stor_id_x000d__x000a_"/>
+    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.discounttype, T3.stor_name AS stor_idLU, T1.lowqty, T1.highqty, T1.discount_x000d__x000a_FROM pubs.dbo.discounts T1 LEFT JOIN _x000d__x000a_pubs.dbo.stores T3 ON T1.stor_id = T3.stor_id_x000d__x000a_"/>
   </connection>
   <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Verbindung2" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T1.emp_id, T1.fname, T1.minit, T1.lname, T6.job_desc AS job_idLU, T1.job_lvl, T8.pub_name AS pub_idLU_x000d__x000a_FROM pubs.dbo.employee T1 INNER JOIN _x000d__x000a_pubs.dbo.jobs T6 ON T1.job_id = T6.job_id INNER JOIN _x000d__x000a_pubs.dbo.publishers T8 ON T1.pub_id = T8.pub_id_x000d__x000a_"/>
+    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.emp_id, T1.fname, T1.minit, T1.lname, T6.job_desc AS job_idLU, T1.job_lvl, T8.pub_name AS pub_idLU_x000d__x000a_FROM pubs.dbo.employee T1 INNER JOIN _x000d__x000a_pubs.dbo.jobs T6 ON T1.job_id = T6.job_id INNER JOIN _x000d__x000a_pubs.dbo.publishers T8 ON T1.pub_id = T8.pub_id_x000d__x000a_"/>
   </connection>
   <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="Verbindung3" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T1.job_id, T1.job_desc, T1.min_lvl, T1.max_lvl_x000d__x000a_FROM pubs.dbo.jobs T1_x000d__x000a_"/>
+    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.job_id, T1.job_desc, T1.min_lvl, T1.max_lvl_x000d__x000a_FROM pubs.dbo.jobs T1_x000d__x000a_"/>
   </connection>
   <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" keepAlive="1" name="Verbindung4" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T1.pub_id, T1.pub_name, T1.city, T1.state, T1.country_x000d__x000a_FROM pubs.dbo.publishers T1_x000d__x000a_"/>
+    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.pub_id, T1.pub_name, T1.city, T1.state, T1.country_x000d__x000a_FROM pubs.dbo.publishers T1_x000d__x000a_"/>
   </connection>
   <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" keepAlive="1" name="Verbindung5" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T2.title+'/'+p.pub_name AS title_idLU, T1.lorange, T1.hirange, T1.royalty_x000d__x000a_FROM pubs.dbo.roysched T1 INNER JOIN _x000d__x000a_pubs.dbo.titles T2 ON T1.title_id = T2.title_id LEFT JOIN _x000d__x000a_pubs.dbo.publishers p ON T2.pub_id = p.pub_id_x000d__x000a__x000d__x000a_"/>
+    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T2.title+'/'+p.pub_name AS title_idLU, T1.lorange, T1.hirange, T1.royalty_x000d__x000a_FROM pubs.dbo.roysched T1 INNER JOIN _x000d__x000a_pubs.dbo.titles T2 ON T1.title_id = T2.title_id LEFT JOIN _x000d__x000a_pubs.dbo.publishers p ON T2.pub_id = p.pub_id_x000d__x000a__x000d__x000a_"/>
   </connection>
   <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" keepAlive="1" name="Verbindung6" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT isnull(T2.au_lname + ' ' + T2.au_fname, T1.au_id) au_idLU, T3.title AS title_idLU, T1.au_ord, T1.royaltyper_x000d__x000a_FROM pubs.dbo.titleauthor T1 LEFT JOIN _x000d__x000a_pubs.dbo.authors T2 ON T1.au_id = T2.au_id LEFT JOIN _x000d__x000a_pubs.dbo.titles T3 ON T1.title_id = T3.title_id_x000d__x000a_"/>
+    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT isnull(T2.au_lname + ' ' + T2.au_fname, T1.au_id) au_idLU, T3.title AS title_idLU, T1.au_ord, T1.royaltyper_x000d__x000a_FROM pubs.dbo.titleauthor T1 LEFT JOIN _x000d__x000a_pubs.dbo.authors T2 ON T1.au_id = T2.au_id LEFT JOIN _x000d__x000a_pubs.dbo.titles T3 ON T1.title_id = T3.title_id_x000d__x000a_"/>
   </connection>
   <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" keepAlive="1" name="Verbindung7" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T1.title_id, T1.title, T1.type, T5.pub_name AS pub_idLU, T1.price, T1.advance, T1.royalty, T1.ytd_sales, T1.notes, T1.pubdate_x000d__x000a_FROM pubs.dbo.titles T1 LEFT JOIN _x000d__x000a_pubs.dbo.publishers T5 ON T1.pub_id = T5.pub_id_x000d__x000a_"/>
+    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.title_id, T1.title, T1.type, T5.pub_name AS pub_idLU, T1.price, T1.advance, T1.royalty, T1.ytd_sales, T1.notes, T1.pubdate_x000d__x000a_FROM pubs.dbo.titles T1 LEFT JOIN _x000d__x000a_pubs.dbo.publishers T5 ON T1.pub_id = T5.pub_id_x000d__x000a_"/>
   </connection>
   <connection id="9" xr16:uid="{B7275D5B-5419-43EF-AC90-462F6DFD7D23}" keepAlive="1" name="Verbindung8" type="5" refreshedVersion="6" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T2.stor_name AS stor_idLU, T1.ord_num, T1.ord_date, T1.qty, T1.payterms, T7.title AS title_idLU_x000d__x000a_FROM pubs.dbo.sales T1 INNER JOIN _x000d__x000a_pubs.dbo.stores T2 ON T1.stor_id = T2.stor_id INNER JOIN _x000d__x000a_pubs.dbo.titles T7 ON T1.title_id = T7.title_id_x000d__x000a_"/>
+    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T2.stor_name AS stor_idLU, T1.ord_num, T1.ord_date, T1.qty, T1.payterms, T7.title AS title_idLU_x000d__x000a_FROM pubs.dbo.sales T1 INNER JOIN _x000d__x000a_pubs.dbo.stores T2 ON T1.stor_id = T2.stor_id INNER JOIN _x000d__x000a_pubs.dbo.titles T7 ON T1.title_id = T7.title_id_x000d__x000a_"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="544">
   <si>
     <t xml:space="preserve">SELECT T1.au_id, T1.au_lname, T1.au_fname, T1.phone, T1.address, T1.city, T1.state, T1.zip, T1.contract_x000D_
 FROM pubs.dbo.authors T1 _x000D_
@@ -1782,9 +1782,6 @@
     <t>iuziuz</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Timothy</t>
   </si>
   <si>
@@ -1804,14 +1801,28 @@
   </si>
   <si>
     <t>München</t>
+  </si>
+  <si>
+    <t>notexisting</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1839,12 +1850,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3421,7 +3433,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle_ExterneDaten_18" displayName="Tabelle_ExterneDaten_18" ref="B1:G25" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle_ExterneDaten_18" displayName="Tabelle_ExterneDaten_18" ref="B1:G26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <tableColumns count="6">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" uniqueName="3" name="au_idLU" queryTableFieldId="2" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" uniqueName="4" name="title_idLU" queryTableFieldId="3" dataDxfId="17"/>
@@ -3723,19 +3735,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
@@ -4254,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>117</v>
       </c>
@@ -4283,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>122</v>
       </c>
@@ -4312,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>128</v>
       </c>
@@ -4341,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>133</v>
       </c>
@@ -4370,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>141</v>
       </c>
@@ -4399,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>144</v>
       </c>
@@ -4428,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>151</v>
       </c>
@@ -4457,33 +4469,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J24" s="2" t="b">
+      <c r="J24" s="5" t="b">
         <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +4931,7 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5580,7 +5593,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Tabelle13"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -6156,12 +6169,34 @@
         <v>PS2106</v>
       </c>
     </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>100</v>
+      </c>
+      <c r="F26" s="2" t="e">
+        <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <v>PS3333</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B26" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>OFFSET(au_idLookup,0,0,,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>OFFSET(title_idLookup,0,0,,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7959,9 +7994,7 @@
       <c r="C23" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>535</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
         <v>296</v>
       </c>
@@ -8083,9 +8116,7 @@
       <c r="C27" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>535</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
         <v>310</v>
       </c>
@@ -8174,7 +8205,7 @@
         <v>317</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>234</v>
@@ -8300,9 +8331,7 @@
       <c r="C34" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>535</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
         <v>331</v>
       </c>
@@ -8393,9 +8422,7 @@
       <c r="C37" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>535</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
         <v>339</v>
       </c>
@@ -8455,9 +8482,7 @@
       <c r="C39" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>535</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
         <v>346</v>
       </c>
@@ -8481,14 +8506,14 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>193</v>
@@ -8665,7 +8690,7 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>530</v>
@@ -8674,7 +8699,7 @@
         <v>227</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>187</v>
@@ -9157,7 +9182,7 @@
         <v>208</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">

--- a/test/DBSheetsTestMSSQL.xlsx
+++ b/test/DBSheetsTestMSSQL.xlsx
@@ -1,46 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\DBAddin.NET\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\DBAddin.NET\trunk\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC25D6-C512-4696-92CF-7A21F22F6C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734611FD-2ADE-429A-BBD0-416FE90345E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="1725" windowWidth="22095" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="1725" windowWidth="22095" windowHeight="13650" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
     <sheet name="LSdiscounts" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="discounts" sheetId="2" r:id="rId3"/>
-    <sheet name="LSemployee" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="employee" sheetId="4" r:id="rId5"/>
-    <sheet name="jobs" sheetId="6" r:id="rId6"/>
-    <sheet name="publishers" sheetId="7" r:id="rId7"/>
-    <sheet name="LSroysched" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="roysched" sheetId="8" r:id="rId9"/>
-    <sheet name="LStitleauthor" sheetId="11" state="hidden" r:id="rId10"/>
-    <sheet name="LSsales" sheetId="15" state="hidden" r:id="rId11"/>
+    <sheet name="LSemployee" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="employee" sheetId="4" r:id="rId4"/>
+    <sheet name="jobs" sheetId="6" r:id="rId5"/>
+    <sheet name="publishers" sheetId="7" r:id="rId6"/>
+    <sheet name="LSroysched" sheetId="9" state="hidden" r:id="rId7"/>
+    <sheet name="roysched" sheetId="8" r:id="rId8"/>
+    <sheet name="LStitleauthor" sheetId="11" state="hidden" r:id="rId9"/>
+    <sheet name="LSsales" sheetId="15" state="hidden" r:id="rId10"/>
+    <sheet name="DBSheetLookups" sheetId="16" state="hidden" r:id="rId11"/>
     <sheet name="sales" sheetId="14" r:id="rId12"/>
     <sheet name="titleauthor" sheetId="10" r:id="rId13"/>
     <sheet name="LStitles" sheetId="13" state="hidden" r:id="rId14"/>
     <sheet name="titles" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">publishers!$A$1:$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">publishers!$A$1:$A$2</definedName>
     <definedName name="au_idLookup">LStitleauthor!$A$2:$B$24</definedName>
     <definedName name="DBFsource008b1f5c6c9e4da4bb8c477f6a375b1a" hidden="1">LSdiscounts!$A$1</definedName>
     <definedName name="DBFsource048386b80dec4e9d87cf9513847ac5db" hidden="1">#REF!</definedName>
     <definedName name="DBFsource16088adc084140e59ac953b64c5809af" hidden="1">LStitleauthor!$C$1</definedName>
     <definedName name="DBFsource2517e42db6d745919f56c8af78e36649" hidden="1">LStitles!$B$1</definedName>
     <definedName name="DBFsource2667b199dcf74132bf39cc670625fd17" hidden="1">titleauthor!$A$1</definedName>
+    <definedName name="DBFsource30306a10dcdc48cd9c2ef1b980d01a12" hidden="1">#REF!</definedName>
+    <definedName name="DBFsource452e5de1585b47369f820406dba9516d" hidden="1">DBSheetLookups!$C$1</definedName>
     <definedName name="DBFsource6d3053372ec04b5685ae1ae8b1ec3eb4" hidden="1">roysched!$A$1</definedName>
     <definedName name="DBFsource9444f24f32684e17951052ebf4950abb" hidden="1">LSsales!$C$1</definedName>
     <definedName name="DBFsource992c0b939c834927b5b4be12e7c5f3bc" hidden="1">#REF!</definedName>
-    <definedName name="DBFsource9dcfa89545974284a4e8215f57a7dc41" hidden="1">discounts!$A$1</definedName>
+    <definedName name="DBFsource9dcfa89545974284a4e8215f57a7dc41" hidden="1">#REF!</definedName>
+    <definedName name="DBFsourceaa61fe423ffc4078baaf45988a278ac8" hidden="1">DBSheetLookups!$E$1</definedName>
+    <definedName name="DBFsourceaf4734c760624589813a88108dbb3d49" hidden="1">DBSheetLookups!$G$1</definedName>
     <definedName name="DBFsourceafaeef3da22240e7856064ff43f8d6d8" hidden="1">publishers!$A$1</definedName>
     <definedName name="DBFsourceb648a6b572ea4b258d6eddefa1f1a1a2" hidden="1">employee!$A$1</definedName>
     <definedName name="DBFsourceba58cf4be2a54e63af8d36a10a2307ca" hidden="1">jobs!$A$1</definedName>
@@ -50,6 +54,7 @@
     <definedName name="DBFsourcedc77197d6da141ce80332f033e31f791" hidden="1">titles!$A$1</definedName>
     <definedName name="DBFsourcedf6827daae9247819721166790c967f4" hidden="1">LSsales!$A$1</definedName>
     <definedName name="DBFsourcee6eb8d79946a4d6f8ace0a53c821007e" hidden="1">sales!$A$1</definedName>
+    <definedName name="DBFsourceea90c4ae3c8c4f39a5ae506a534f83ea" hidden="1">DBSheetLookups!$A$1</definedName>
     <definedName name="DBFsourcef29a24267b8d48e484d50125828ea001" hidden="1">LStitleauthor!$A$1</definedName>
     <definedName name="DBFsourcef4ff6127b9e24ce29b99ad13e11762a6" hidden="1">LSemployee!$A$1</definedName>
     <definedName name="DBFtarget008b1f5c6c9e4da4bb8c477f6a375b1a" hidden="1">LSsales!$A$2:$B$7</definedName>
@@ -57,41 +62,48 @@
     <definedName name="DBFtarget16088adc084140e59ac953b64c5809af" hidden="1">LSsales!$C$2:$D$18</definedName>
     <definedName name="DBFtarget2517e42db6d745919f56c8af78e36649" hidden="1">LStitles!$B$2:$C$9</definedName>
     <definedName name="DBFtarget2667b199dcf74132bf39cc670625fd17" hidden="1">titleauthor!$B$1:$G$26</definedName>
-    <definedName name="DBFtarget6d3053372ec04b5685ae1ae8b1ec3eb4" hidden="1">roysched!$B$1:$F$87</definedName>
+    <definedName name="DBFtarget30306a10dcdc48cd9c2ef1b980d01a12" hidden="1">#REF!</definedName>
+    <definedName name="DBFtarget452e5de1585b47369f820406dba9516d" hidden="1">DBSheetLookups!$C$2:$D$18</definedName>
+    <definedName name="DBFtarget6d3053372ec04b5685ae1ae8b1ec3eb4" hidden="1">roysched!$B$1:$F$86</definedName>
     <definedName name="DBFtarget9444f24f32684e17951052ebf4950abb" hidden="1">LSsales!$C$2:$D$18</definedName>
     <definedName name="DBFtarget992c0b939c834927b5b4be12e7c5f3bc" hidden="1">#REF!</definedName>
-    <definedName name="DBFtarget9dcfa89545974284a4e8215f57a7dc41" hidden="1">discounts!$B$1:$G$4</definedName>
+    <definedName name="DBFtarget9dcfa89545974284a4e8215f57a7dc41" hidden="1">#REF!</definedName>
+    <definedName name="DBFtargetaa61fe423ffc4078baaf45988a278ac8" hidden="1">DBSheetLookups!$E$2:$F$18</definedName>
+    <definedName name="DBFtargetaf4734c760624589813a88108dbb3d49" hidden="1">DBSheetLookups!$G$2:$H$7</definedName>
     <definedName name="DBFtargetafaeef3da22240e7856064ff43f8d6d8" hidden="1">publishers!$B$1:$F$9</definedName>
-    <definedName name="DBFtargetb648a6b572ea4b258d6eddefa1f1a1a2" hidden="1">employee!$B$1:$J$48</definedName>
-    <definedName name="DBFtargetba58cf4be2a54e63af8d36a10a2307ca" hidden="1">jobs!$B$1:$E$15</definedName>
+    <definedName name="DBFtargetb648a6b572ea4b258d6eddefa1f1a1a2" hidden="1">employee!$B$1:$J$49</definedName>
+    <definedName name="DBFtargetba58cf4be2a54e63af8d36a10a2307ca" hidden="1">jobs!$B$1:$E$16</definedName>
     <definedName name="DBFtargetbbf44909fbc248689a82885fda31d908" hidden="1">LStitles!$B$2:$C$9</definedName>
     <definedName name="DBFtargetd71aa659a0864d838c2b664cc128979b" hidden="1">LSsales!$C$2:$D$18</definedName>
     <definedName name="DBFtargetd7f34f9f057d494fa071dbec688c6080" hidden="1">authors!$B$1:$J$24</definedName>
     <definedName name="DBFtargetdc77197d6da141ce80332f033e31f791" hidden="1">titles!$B$1:$L$18</definedName>
     <definedName name="DBFtargetdf6827daae9247819721166790c967f4" hidden="1">LSsales!$A$2:$B$7</definedName>
     <definedName name="DBFtargete6eb8d79946a4d6f8ace0a53c821007e" hidden="1">sales!$B$1:$I$22</definedName>
+    <definedName name="DBFtargetea90c4ae3c8c4f39a5ae506a534f83ea" hidden="1">DBSheetLookups!$A$2:$B$7</definedName>
     <definedName name="DBFtargetf29a24267b8d48e484d50125828ea001" hidden="1">LStitleauthor!$A$2:$B$24</definedName>
-    <definedName name="DBFtargetf4ff6127b9e24ce29b99ad13e11762a6" hidden="1">LSemployee!$A$2:$B$15</definedName>
+    <definedName name="DBFtargetf4ff6127b9e24ce29b99ad13e11762a6" hidden="1">LSemployee!$A$2:$B$16</definedName>
     <definedName name="DBMapperauthors">authors!$B$1:$J$24</definedName>
-    <definedName name="DBMapperdiscounts">discounts!$B$1:$G$4</definedName>
-    <definedName name="DBMapperemployee">employee!$B$1:$J$48</definedName>
-    <definedName name="DBMapperjobs">jobs!$B$1:$E$15</definedName>
+    <definedName name="DBMapperemployee">employee!$B$1:$J$49</definedName>
+    <definedName name="DBMapperjobs">jobs!$B$1:$E$16</definedName>
     <definedName name="DBMapperpublishers">publishers!$B$1:$F$9</definedName>
-    <definedName name="DBMapperpubs.dbo.sales">sales!$B$1:$I$22</definedName>
-    <definedName name="DBMapperroysched">roysched!$B$1:$F$87</definedName>
+    <definedName name="DBMapperroysched">roysched!$B$1:$F$86</definedName>
+    <definedName name="DBMappersales">sales!$B$1:$I$22</definedName>
     <definedName name="DBMappertitleauthor">titleauthor!$B$1:$G$26</definedName>
     <definedName name="DBMappertitles">titles!$B$1:$L$18</definedName>
+    <definedName name="discountsstor_idLookup">DBSheetLookups!$G$2:$H$7</definedName>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">authors!$B$1:$J$24</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">discounts!$B$1:$F$4</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="4" hidden="1">employee!$B$1:$H$48</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="5" hidden="1">jobs!$B$1:$E$15</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="6" hidden="1">publishers!$B$1:$F$9</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="8" hidden="1">roysched!$B$1:$E$87</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="3" hidden="1">employee!$B$1:$H$49</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="4" hidden="1">jobs!$B$1:$E$16</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="5" hidden="1">publishers!$B$1:$F$9</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="7" hidden="1">roysched!$B$1:$E$86</definedName>
     <definedName name="ExterneDaten_1" localSheetId="11" hidden="1">sales!$B$1:$G$22</definedName>
     <definedName name="ExterneDaten_1" localSheetId="12" hidden="1">titleauthor!$B$1:$E$26</definedName>
     <definedName name="ExterneDaten_1" localSheetId="14" hidden="1">titles!$B$1:$K$18</definedName>
-    <definedName name="job_idLookup">LSemployee!$A$2:$B$15</definedName>
+    <definedName name="job_idLookup">LSemployee!$A$2:$B$16</definedName>
     <definedName name="pub_idLookup">LStitles!$B$2:$C$9</definedName>
+    <definedName name="royschedtitle_idLookup">DBSheetLookups!$E$2:$F$18</definedName>
+    <definedName name="salesstor_idLookup">DBSheetLookups!$A$2:$B$7</definedName>
+    <definedName name="salestitle_idLookup">DBSheetLookups!$C$2:$D$18</definedName>
     <definedName name="stor_idLookup">LSsales!$A$2:$B$7</definedName>
     <definedName name="title_idLookup">LSsales!$C$2:$D$18</definedName>
     <definedName name="typeLookup">LStitles!$A$2:$A$6</definedName>
@@ -101,14 +113,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -116,37 +120,34 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Verbindung" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.au_id, T1.au_lname, T1.au_fname, T1.phone, T1.address, T1.city, T1.state, T1.zip, T1.contract_x000d__x000a_FROM pubs.dbo.authors T1 _x000d__x000a_"/>
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office;WSID=0023245AD95D;DATABASE=pubs&quot;" command="SELECT T1.au_id, T1.au_lname, T1.au_fname, T1.phone, T1.address, T1.city, T1.state, T1.zip, T1.contract_x000d__x000a_FROM pubs.dbo.authors T1 _x000d__x000a_"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Verbindung1" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.discounttype, T3.stor_name AS stor_idLU, T1.lowqty, T1.highqty, T1.discount_x000d__x000a_FROM pubs.dbo.discounts T1 LEFT JOIN _x000d__x000a_pubs.dbo.stores T3 ON T1.stor_id = T3.stor_id_x000d__x000a_"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Verbindung2" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office;WSID=0023245AD95D;DATABASE=pubs&quot;" command="SELECT T1.emp_id, T1.fname, T1.minit, T1.lname, T6.job_desc AS job_idLU, T1.job_lvl, T8.pub_name AS pub_idLU_x000d__x000a_FROM pubs.dbo.employee T1 INNER JOIN _x000d__x000a_pubs.dbo.jobs T6 ON T1.job_id = T6.job_id INNER JOIN _x000d__x000a_pubs.dbo.publishers T8 ON T1.pub_id = T8.pub_id_x000d__x000a_"/>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Verbindung2" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.emp_id, T1.fname, T1.minit, T1.lname, T6.job_desc AS job_idLU, T1.job_lvl, T8.pub_name AS pub_idLU_x000d__x000a_FROM pubs.dbo.employee T1 INNER JOIN _x000d__x000a_pubs.dbo.jobs T6 ON T1.job_id = T6.job_id INNER JOIN _x000d__x000a_pubs.dbo.publishers T8 ON T1.pub_id = T8.pub_id_x000d__x000a_"/>
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="Verbindung3" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office;WSID=0023245AD95D;DATABASE=pubs&quot;" command="SELECT T1.job_id, T1.job_desc, T1.min_lvl, T1.max_lvl_x000d__x000a_FROM pubs.dbo.jobs T1_x000d__x000a_"/>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="Verbindung3" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.job_id, T1.job_desc, T1.min_lvl, T1.max_lvl_x000d__x000a_FROM pubs.dbo.jobs T1_x000d__x000a_"/>
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" keepAlive="1" name="Verbindung4" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office;WSID=0023245AD95D;DATABASE=pubs&quot;" command="SELECT T1.pub_id, T1.pub_name, T1.city, T1.state, T1.country_x000d__x000a_FROM pubs.dbo.publishers T1_x000d__x000a_"/>
   </connection>
-  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" keepAlive="1" name="Verbindung4" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.pub_id, T1.pub_name, T1.city, T1.state, T1.country_x000d__x000a_FROM pubs.dbo.publishers T1_x000d__x000a_"/>
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" keepAlive="1" name="Verbindung5" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office;WSID=0023245AD95D;DATABASE=pubs&quot;" command="SELECT T2.title+'/'+p.pub_name AS title_idLU, T1.lorange, T1.hirange, T1.royalty_x000d__x000a_FROM pubs.dbo.roysched T1 INNER JOIN _x000d__x000a_pubs.dbo.titles T2 ON T1.title_id = T2.title_id LEFT JOIN _x000d__x000a_pubs.dbo.publishers p ON T2.pub_id = p.pub_id_x000d__x000a__x000d__x000a_"/>
   </connection>
-  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" keepAlive="1" name="Verbindung5" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T2.title+'/'+p.pub_name AS title_idLU, T1.lorange, T1.hirange, T1.royalty_x000d__x000a_FROM pubs.dbo.roysched T1 INNER JOIN _x000d__x000a_pubs.dbo.titles T2 ON T1.title_id = T2.title_id LEFT JOIN _x000d__x000a_pubs.dbo.publishers p ON T2.pub_id = p.pub_id_x000d__x000a__x000d__x000a_"/>
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" keepAlive="1" name="Verbindung6" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office;WSID=0023245AD95D;DATABASE=pubs&quot;" command="SELECT isnull(T2.au_lname + ' ' + T2.au_fname, T1.au_id) au_idLU, T3.title AS title_idLU, T1.au_ord, T1.royaltyper_x000d__x000a_FROM pubs.dbo.titleauthor T1 LEFT JOIN _x000d__x000a_pubs.dbo.authors T2 ON T1.au_id = T2.au_id LEFT JOIN _x000d__x000a_pubs.dbo.titles T3 ON T1.title_id = T3.title_id_x000d__x000a_"/>
   </connection>
-  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" keepAlive="1" name="Verbindung6" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT isnull(T2.au_lname + ' ' + T2.au_fname, T1.au_id) au_idLU, T3.title AS title_idLU, T1.au_ord, T1.royaltyper_x000d__x000a_FROM pubs.dbo.titleauthor T1 LEFT JOIN _x000d__x000a_pubs.dbo.authors T2 ON T1.au_id = T2.au_id LEFT JOIN _x000d__x000a_pubs.dbo.titles T3 ON T1.title_id = T3.title_id_x000d__x000a_"/>
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" keepAlive="1" name="Verbindung7" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office;WSID=0023245AD95D;DATABASE=pubs&quot;" command="SELECT T1.title_id, T1.title, T1.type, T5.pub_name AS pub_idLU, T1.price, T1.advance, T1.royalty, T1.ytd_sales, T1.notes, T1.pubdate_x000d__x000a_FROM pubs.dbo.titles T1 LEFT JOIN _x000d__x000a_pubs.dbo.publishers T5 ON T1.pub_id = T5.pub_id_x000d__x000a_"/>
   </connection>
-  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" keepAlive="1" name="Verbindung7" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T1.title_id, T1.title, T1.type, T5.pub_name AS pub_idLU, T1.price, T1.advance, T1.royalty, T1.ytd_sales, T1.notes, T1.pubdate_x000d__x000a_FROM pubs.dbo.titles T1 LEFT JOIN _x000d__x000a_pubs.dbo.publishers T5 ON T1.pub_id = T5.pub_id_x000d__x000a_"/>
-  </connection>
-  <connection id="9" xr16:uid="{B7275D5B-5419-43EF-AC90-462F6DFD7D23}" keepAlive="1" name="Verbindung8" type="5" refreshedVersion="6" saveData="1">
-    <dbPr connection="Provider=MSOLEDBSQL.1;Persist Security Info=True;Extended Properties=&quot;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32576;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False;MARS Connection=False;DataTypeCompatibility=0;Trust Server Certificate=False;Application Intent=READWRITE;MultisubnetFailover=False;Use FMTONLY=False" command="SELECT T2.stor_name AS stor_idLU, T1.ord_num, T1.ord_date, T1.qty, T1.payterms, T7.title AS title_idLU_x000d__x000a_FROM pubs.dbo.sales T1 INNER JOIN _x000d__x000a_pubs.dbo.stores T2 ON T1.stor_id = T2.stor_id INNER JOIN _x000d__x000a_pubs.dbo.titles T7 ON T1.title_id = T7.title_id_x000d__x000a_"/>
+  <connection id="8" xr16:uid="{B7275D5B-5419-43EF-AC90-462F6DFD7D23}" keepAlive="1" name="Verbindung8" type="5" refreshedVersion="6" saveData="1">
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office;WSID=0023245AD95D;DATABASE=pubs&quot;" command="SELECT T2.stor_name stor_idLU, T1.ord_num, T4.title title_idLU, T1.ord_date, T1.qty, T1.payterms_x000d__x000a_FROM pubs.dbo.sales T1 INNER JOIN _x000d__x000a_pubs.dbo.stores T2 ON T1.stor_id = T2.stor_id INNER JOIN _x000d__x000a_pubs.dbo.titles T4 ON T1.title_id = T4.title_id_x000d__x000a_"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="542">
   <si>
     <t xml:space="preserve">SELECT T1.au_id, T1.au_lname, T1.au_fname, T1.phone, T1.address, T1.city, T1.state, T1.zip, T1.contract_x000D_
 FROM pubs.dbo.authors T1 _x000D_
@@ -636,12 +637,6 @@
     <t>SELECT stor_name,stor_id FROM pubs.dbo.stores ORDER BY stor_name</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT T1.discounttype, T3.stor_name AS stor_idLU, T1.lowqty, T1.highqty, T1.discount_x000D_
-FROM pubs.dbo.discounts T1 LEFT JOIN _x000D_
-pubs.dbo.stores T3 ON T1.stor_id = T3.stor_id_x000D_
-</t>
-  </si>
-  <si>
     <t>Barnum's</t>
   </si>
   <si>
@@ -678,28 +673,7 @@
     <t>7067</t>
   </si>
   <si>
-    <t>discounttype</t>
-  </si>
-  <si>
     <t>stor_idLU</t>
-  </si>
-  <si>
-    <t>lowqty</t>
-  </si>
-  <si>
-    <t>highqty</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>Initial Customer</t>
-  </si>
-  <si>
-    <t>Volume Discount</t>
-  </si>
-  <si>
-    <t>Customer Discount</t>
   </si>
   <si>
     <t>stor_id</t>
@@ -1682,131 +1656,149 @@
     <t>Detailed instructions on how to make authentic Japanese sushi in your spare time.</t>
   </si>
   <si>
-    <t>Chief Executive Officer</t>
-  </si>
-  <si>
-    <t>309 63rd St. #411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT T2.stor_name AS stor_idLU, T1.ord_num, T1.ord_date, T1.qty, T1.payterms, T7.title AS title_idLU_x000D_
+    <t>ord_num</t>
+  </si>
+  <si>
+    <t>ord_date</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>payterms</t>
+  </si>
+  <si>
+    <t>6871</t>
+  </si>
+  <si>
+    <t>Net 60</t>
+  </si>
+  <si>
+    <t>722a</t>
+  </si>
+  <si>
+    <t>Net 30</t>
+  </si>
+  <si>
+    <t>QA7442.3</t>
+  </si>
+  <si>
+    <t>ON invoice</t>
+  </si>
+  <si>
+    <t>D4482</t>
+  </si>
+  <si>
+    <t>P2121</t>
+  </si>
+  <si>
+    <t>N914008</t>
+  </si>
+  <si>
+    <t>N914014</t>
+  </si>
+  <si>
+    <t>P3087a</t>
+  </si>
+  <si>
+    <t>QQ2299</t>
+  </si>
+  <si>
+    <t>TQ456</t>
+  </si>
+  <si>
+    <t>X999</t>
+  </si>
+  <si>
+    <t>423LL930</t>
+  </si>
+  <si>
+    <t>P723</t>
+  </si>
+  <si>
+    <t>QA879.1</t>
+  </si>
+  <si>
+    <t>PMA42628M</t>
+  </si>
+  <si>
+    <t>DZT39435M</t>
+  </si>
+  <si>
+    <t>iouiz</t>
+  </si>
+  <si>
+    <t>iuziuz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>309 63rd St. 411</t>
+  </si>
+  <si>
+    <t>Chief Executive Officersdfsdf</t>
+  </si>
+  <si>
+    <t>Acquisitions Manager2</t>
+  </si>
+  <si>
+    <t>PSA89084M</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>ERE39435M</t>
+  </si>
+  <si>
+    <t>ertert</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>erter</t>
+  </si>
+  <si>
+    <t>DBT39445M</t>
+  </si>
+  <si>
+    <t>Muenchen</t>
+  </si>
+  <si>
+    <t>PC9999</t>
+  </si>
+  <si>
+    <t>Net Etiquette</t>
+  </si>
+  <si>
+    <t>A2976</t>
+  </si>
+  <si>
+    <t>423LL922</t>
+  </si>
+  <si>
+    <t>A must-read for computer conferencing.</t>
+  </si>
+  <si>
+    <t>SELECT LT.stor_name stor_id,LT.stor_id FROM pubs.dbo.stores LT ORDER BY stor_name</t>
+  </si>
+  <si>
+    <t>SELECT LT.title title_id,LT.title_id FROM pubs.dbo.titles LT ORDER BY title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT T2.stor_name stor_idLU, T1.ord_num, T4.title title_idLU, T1.ord_date, T1.qty, T1.payterms_x000D_
 FROM pubs.dbo.sales T1 INNER JOIN _x000D_
 pubs.dbo.stores T2 ON T1.stor_id = T2.stor_id INNER JOIN _x000D_
-pubs.dbo.titles T7 ON T1.title_id = T7.title_id_x000D_
+pubs.dbo.titles T4 ON T1.title_id = T4.title_id_x000D_
 </t>
   </si>
   <si>
-    <t>ord_num</t>
-  </si>
-  <si>
-    <t>ord_date</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>payterms</t>
-  </si>
-  <si>
-    <t>6871</t>
-  </si>
-  <si>
-    <t>Net 60</t>
-  </si>
-  <si>
-    <t>722a</t>
-  </si>
-  <si>
-    <t>Net 30</t>
-  </si>
-  <si>
-    <t>QA7442.3</t>
-  </si>
-  <si>
-    <t>ON invoice</t>
-  </si>
-  <si>
-    <t>D4482</t>
-  </si>
-  <si>
-    <t>P2121</t>
-  </si>
-  <si>
-    <t>N914008</t>
-  </si>
-  <si>
-    <t>N914014</t>
-  </si>
-  <si>
-    <t>P3087a</t>
-  </si>
-  <si>
-    <t>QQ2299</t>
-  </si>
-  <si>
-    <t>TQ456</t>
-  </si>
-  <si>
-    <t>X999</t>
-  </si>
-  <si>
-    <t>423LL930</t>
-  </si>
-  <si>
-    <t>P723</t>
-  </si>
-  <si>
-    <t>QA879.1</t>
-  </si>
-  <si>
-    <t>N914016</t>
-  </si>
-  <si>
-    <t>TC3219</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>PMA42628M</t>
-  </si>
-  <si>
-    <t>DZT39435M</t>
-  </si>
-  <si>
-    <t>iouiz</t>
-  </si>
-  <si>
-    <t>iuziuz</t>
-  </si>
-  <si>
-    <t>Timothy</t>
-  </si>
-  <si>
-    <t>DZT39436F</t>
-  </si>
-  <si>
-    <t>ttt</t>
-  </si>
-  <si>
-    <t>rtzrfh</t>
-  </si>
-  <si>
-    <t>DBT39435F</t>
-  </si>
-  <si>
-    <t>swer</t>
-  </si>
-  <si>
-    <t>München</t>
-  </si>
-  <si>
-    <t>notexisting</t>
-  </si>
-  <si>
-    <t>u</t>
+    <t>Net Etiquette/Algodata Infosystems</t>
+  </si>
+  <si>
+    <t>SELECT LT.title+'/'+p.pub_name AS title_id,LT.title_id FROM pubs.dbo.titles LT LEFT JOIN pubs.dbo.publishers p ON LT.pub_id = p.pub_id ORDER BY LT.title</t>
   </si>
 </sst>
 </file>
@@ -1822,9 +1814,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1850,18 +1840,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="73">
     <dxf>
       <font>
         <b val="0"/>
@@ -1872,7 +1863,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1889,7 +1880,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1906,7 +1897,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1922,7 +1913,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1938,7 +1929,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1954,7 +1945,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1970,7 +1961,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1986,7 +1977,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2002,7 +1993,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2018,7 +2009,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2034,7 +2025,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2050,7 +2041,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2066,7 +2057,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2082,7 +2073,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2098,7 +2089,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2114,7 +2105,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2130,7 +2121,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2146,7 +2137,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2162,7 +2153,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2178,7 +2169,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2194,7 +2185,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2210,7 +2201,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2226,7 +2217,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2242,7 +2233,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2258,7 +2249,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2274,11 +2265,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -2290,7 +2282,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2307,7 +2299,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2323,7 +2315,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2339,7 +2331,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2355,7 +2347,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2371,7 +2363,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2387,7 +2379,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2403,7 +2395,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2419,7 +2411,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2435,7 +2427,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2451,7 +2443,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2467,7 +2459,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2483,7 +2475,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2499,7 +2491,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2515,7 +2507,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2531,7 +2523,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2547,7 +2539,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2563,7 +2555,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2579,7 +2571,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2595,7 +2587,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2611,7 +2603,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2627,7 +2619,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2643,7 +2635,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2659,7 +2651,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2675,7 +2667,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2691,7 +2683,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2707,7 +2699,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2723,7 +2715,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2739,7 +2731,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2755,7 +2747,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2771,7 +2763,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2787,7 +2779,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2803,7 +2795,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2819,7 +2811,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2835,7 +2827,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2851,7 +2843,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2867,7 +2859,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2883,7 +2875,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2899,7 +2891,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2915,7 +2907,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2931,7 +2923,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2947,7 +2939,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2963,7 +2955,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2979,7 +2971,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2995,7 +2987,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -3011,7 +3003,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -3027,135 +3019,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -3193,22 +3057,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8" unboundColumnsRight="1">
-    <queryTableFields count="6">
-      <queryTableField id="2" name="discounttype" tableColumnId="3"/>
-      <queryTableField id="3" name="stor_idLU" tableColumnId="4"/>
-      <queryTableField id="4" name="lowqty" tableColumnId="5"/>
-      <queryTableField id="5" name="highqty" tableColumnId="6"/>
-      <queryTableField id="6" name="discount" tableColumnId="7"/>
-      <queryTableField id="7" dataBound="0" tableColumnId="8"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="3" xr16:uid="{00000000-0016-0000-0400-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="2" xr16:uid="{00000000-0016-0000-0400-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11" unboundColumnsRight="2">
     <queryTableFields count="9">
       <queryTableField id="2" name="emp_id" tableColumnId="3"/>
@@ -3225,8 +3074,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="4" xr16:uid="{00000000-0016-0000-0500-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="3" xr16:uid="{00000000-0016-0000-0500-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="4">
       <queryTableField id="2" name="job_id" tableColumnId="3"/>
@@ -3238,8 +3087,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="5" xr16:uid="{00000000-0016-0000-0600-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="4" xr16:uid="{00000000-0016-0000-0600-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="5">
       <queryTableField id="2" name="pub_id" tableColumnId="3"/>
@@ -3252,39 +3101,39 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="5" xr16:uid="{00000000-0016-0000-0800-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6" unboundColumnsRight="1">
+    <queryTableFields count="5">
+      <queryTableField id="1" name="title_idLU" tableColumnId="1"/>
+      <queryTableField id="2" name="lorange" tableColumnId="2"/>
+      <queryTableField id="3" name="hirange" tableColumnId="3"/>
+      <queryTableField id="4" name="royalty" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="6" xr16:uid="{00000000-0016-0000-0800-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="1">
-    <queryTableFields count="5">
-      <queryTableField id="2" name="title_idLU" tableColumnId="3"/>
-      <queryTableField id="3" name="lorange" tableColumnId="4"/>
-      <queryTableField id="4" name="hirange" tableColumnId="5"/>
-      <queryTableField id="5" name="royalty" tableColumnId="6"/>
-      <queryTableField id="6" dataBound="0" tableColumnId="7"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" backgroundRefresh="0" connectionId="8" xr16:uid="{D12AC62A-727F-4F0E-A37D-6DD1BC978FE8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="9" unboundColumnsRight="2">
+    <queryTableFields count="8">
+      <queryTableField id="1" name="stor_idLU" tableColumnId="25"/>
+      <queryTableField id="2" name="ord_num" tableColumnId="26"/>
+      <queryTableField id="3" name="title_idLU" tableColumnId="27"/>
+      <queryTableField id="4" name="ord_date" tableColumnId="28"/>
+      <queryTableField id="5" name="qty" tableColumnId="29"/>
+      <queryTableField id="6" name="payterms" tableColumnId="30"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="31"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="32"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" backgroundRefresh="0" adjustColumnWidth="0" connectionId="9" xr16:uid="{D12AC62A-727F-4F0E-A37D-6DD1BC978FE8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10" unboundColumnsRight="2">
-    <queryTableFields count="8">
-      <queryTableField id="2" name="stor_idLU" tableColumnId="3"/>
-      <queryTableField id="3" name="ord_num" tableColumnId="4"/>
-      <queryTableField id="4" name="ord_date" tableColumnId="5"/>
-      <queryTableField id="5" name="qty" tableColumnId="6"/>
-      <queryTableField id="6" name="payterms" tableColumnId="7"/>
-      <queryTableField id="7" name="title_idLU" tableColumnId="8"/>
-      <queryTableField id="8" dataBound="0" tableColumnId="9"/>
-      <queryTableField id="9" dataBound="0" tableColumnId="10"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="7" xr16:uid="{00000000-0016-0000-0A00-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="6" xr16:uid="{00000000-0016-0000-0A00-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8" unboundColumnsRight="2">
     <queryTableFields count="6">
       <queryTableField id="2" name="au_idLU" tableColumnId="3"/>
@@ -3298,8 +3147,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="8" xr16:uid="{00000000-0016-0000-0C00-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="7" xr16:uid="{00000000-0016-0000-0C00-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13" unboundColumnsRight="1">
     <queryTableFields count="11">
       <queryTableField id="2" name="title_id" tableColumnId="3"/>
@@ -3319,40 +3168,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle_ExterneDaten_1" displayName="Tabelle_ExterneDaten_1" ref="B1:J24" tableType="queryTable" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle_ExterneDaten_1" displayName="Tabelle_ExterneDaten_1" ref="B1:J24" tableType="queryTable" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <tableColumns count="9">
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="au_id" queryTableFieldId="44" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="au_lname" queryTableFieldId="45" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="au_fname" queryTableFieldId="46" dataDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="phone" queryTableFieldId="47" dataDxfId="75"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="address" queryTableFieldId="48" dataDxfId="74"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="city" queryTableFieldId="49" dataDxfId="73"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="state" queryTableFieldId="50" dataDxfId="72"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="zip" queryTableFieldId="51" dataDxfId="71"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="contract" queryTableFieldId="52" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="au_id" queryTableFieldId="44" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="au_lname" queryTableFieldId="45" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="au_fname" queryTableFieldId="46" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="phone" queryTableFieldId="47" dataDxfId="67"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="address" queryTableFieldId="48" dataDxfId="66"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="city" queryTableFieldId="49" dataDxfId="65"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="state" queryTableFieldId="50" dataDxfId="64"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="zip" queryTableFieldId="51" dataDxfId="63"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="contract" queryTableFieldId="52" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle_ExterneDaten_13" displayName="Tabelle_ExterneDaten_13" ref="B1:G4" tableType="queryTable" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="discounttype" queryTableFieldId="2" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="stor_idLU" queryTableFieldId="3" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="lowqty" queryTableFieldId="4" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="highqty" queryTableFieldId="5" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="discount" queryTableFieldId="6" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="stor_id" queryTableFieldId="7" dataDxfId="64">
-      <calculatedColumnFormula>IF(Tabelle_ExterneDaten_13[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_13[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle_ExterneDaten_14" displayName="Tabelle_ExterneDaten_14" ref="B1:J48" tableType="queryTable" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle_ExterneDaten_14" displayName="Tabelle_ExterneDaten_14" ref="B1:J49" tableType="queryTable" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <tableColumns count="9">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="emp_id" queryTableFieldId="2" dataDxfId="59"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="fname" queryTableFieldId="3" dataDxfId="58"/>
@@ -3372,8 +3205,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle_ExterneDaten_15" displayName="Tabelle_ExterneDaten_15" ref="B1:E15" tableType="queryTable" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle_ExterneDaten_15" displayName="Tabelle_ExterneDaten_15" ref="B1:E16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" uniqueName="3" name="job_id" queryTableFieldId="2" dataDxfId="48"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" uniqueName="4" name="job_desc" queryTableFieldId="3" dataDxfId="47"/>
@@ -3384,7 +3217,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle_ExterneDaten_16" displayName="Tabelle_ExterneDaten_16" ref="B1:F9" tableType="queryTable" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="pub_id" queryTableFieldId="2" dataDxfId="42"/>
@@ -3397,42 +3230,36 @@
 </table>
 </file>
 
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle_ExterneDaten_17" displayName="Tabelle_ExterneDaten_17" ref="B1:F86" tableType="queryTable" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{72BDED5B-40ED-4E5B-83B6-18564521E757}" uniqueName="1" name="title_idLU" queryTableFieldId="1" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{2B272856-FEBD-40AF-A302-AFAEBECB7A8E}" uniqueName="2" name="lorange" queryTableFieldId="2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{D17048AC-429B-4E62-B700-857491D9599E}" uniqueName="3" name="hirange" queryTableFieldId="3" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{60B5ED61-1F39-488B-B1F2-9D4AA321AF23}" uniqueName="4" name="royalty" queryTableFieldId="4" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{4E6E7066-2C1D-4BCF-80AE-F3F5182FDC89}" uniqueName="5" name="title_id" queryTableFieldId="5" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle_ExterneDaten_17" displayName="Tabelle_ExterneDaten_17" ref="B1:F87" tableType="queryTable" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" uniqueName="3" name="title_idLU" queryTableFieldId="2" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" uniqueName="4" name="lorange" queryTableFieldId="3" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" uniqueName="5" name="hirange" queryTableFieldId="4" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" uniqueName="6" name="royalty" queryTableFieldId="5" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" uniqueName="7" name="title_id" queryTableFieldId="6" dataDxfId="31">
-      <calculatedColumnFormula>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4D4AB5C5-A8A2-46BB-B775-DCC7E94C3F79}" name="Tabelle_ExterneDaten_110" displayName="Tabelle_ExterneDaten_110" ref="B1:I22" tableType="queryTable" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <tableColumns count="8">
+    <tableColumn id="25" xr3:uid="{E594A200-DA94-4B5F-BB39-0B033784CDCE}" uniqueName="25" name="stor_idLU" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="26" xr3:uid="{81CA1247-C2D5-4285-8214-81B7F563C74C}" uniqueName="26" name="ord_num" queryTableFieldId="2" dataDxfId="27"/>
+    <tableColumn id="27" xr3:uid="{91E389DD-47EC-41BD-A129-FFC0A9A5CA02}" uniqueName="27" name="title_idLU" queryTableFieldId="3" dataDxfId="26"/>
+    <tableColumn id="28" xr3:uid="{09973416-1DEF-4C6D-8521-8E3B3BDBC747}" uniqueName="28" name="ord_date" queryTableFieldId="4" dataDxfId="25"/>
+    <tableColumn id="29" xr3:uid="{8E6306CB-4028-447F-9F1A-32A2EA83DE46}" uniqueName="29" name="qty" queryTableFieldId="5" dataDxfId="24"/>
+    <tableColumn id="30" xr3:uid="{72F7083A-3A19-4521-B003-2472699CAD5B}" uniqueName="30" name="payterms" queryTableFieldId="6" dataDxfId="23"/>
+    <tableColumn id="31" xr3:uid="{7853B4CD-A1F9-41B6-B6C4-D1D926F472D2}" uniqueName="31" name="stor_id" queryTableFieldId="7" dataDxfId="22"/>
+    <tableColumn id="32" xr3:uid="{78763CB1-CCCE-424C-907E-53D9658F73D9}" uniqueName="32" name="title_id" queryTableFieldId="8" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4D4AB5C5-A8A2-46BB-B775-DCC7E94C3F79}" name="Tabelle_ExterneDaten_110" displayName="Tabelle_ExterneDaten_110" ref="B1:I22" tableType="queryTable" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <tableColumns count="8">
-    <tableColumn id="3" xr3:uid="{9E0E6B70-B469-492A-99F9-9ACDCFAA3F75}" uniqueName="3" name="stor_idLU" queryTableFieldId="2" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{F7471514-B895-4BCC-B99F-DB68E1EC8FC6}" uniqueName="4" name="ord_num" queryTableFieldId="3" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{0842B13B-DF2E-4435-9AA3-14D540418B13}" uniqueName="5" name="ord_date" queryTableFieldId="4" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{50CC24BE-2879-4EFE-B5E0-A40C449EE41E}" uniqueName="6" name="qty" queryTableFieldId="5" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{EA6E6352-0F18-4286-ABC5-67712FC062BA}" uniqueName="7" name="payterms" queryTableFieldId="6" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{3F4D38AE-2DCD-4D36-BDF8-4F3B14B8D8CD}" uniqueName="8" name="title_idLU" queryTableFieldId="7" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{2A61E201-7C88-4103-86DA-566A7CC51E6E}" uniqueName="9" name="stor_id" queryTableFieldId="8" dataDxfId="22">
-      <calculatedColumnFormula>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{41615376-5030-49F0-9D46-35FFD4FD5304}" uniqueName="10" name="title_id" queryTableFieldId="9" dataDxfId="21">
-      <calculatedColumnFormula>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle_ExterneDaten_18" displayName="Tabelle_ExterneDaten_18" ref="B1:G26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <tableColumns count="6">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" uniqueName="3" name="au_idLU" queryTableFieldId="2" dataDxfId="18"/>
@@ -3450,7 +3277,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle_ExterneDaten_19" displayName="Tabelle_ExterneDaten_19" ref="B1:L18" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="11">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" uniqueName="3" name="title_id" queryTableFieldId="2" dataDxfId="10"/>
@@ -3735,19 +3562,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
@@ -3796,7 +3623,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.au_id, T1.au_lname, T1.au_fname, T1.phone, T1.address, T1.city, T1.state, T1.zip, T1.contract_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.au_id, T1.au_lname, T1.au_fname, T1.phone, T1.address, T1.city, T1.state, T1.zip, T1.contract_x000D_
 FROM pubs.dbo.authors T1 _x000D_
 </v>
       </c>
@@ -3874,7 +3701,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
@@ -4266,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>117</v>
       </c>
@@ -4295,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>122</v>
       </c>
@@ -4324,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>128</v>
       </c>
@@ -4353,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>133</v>
       </c>
@@ -4382,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>141</v>
       </c>
@@ -4408,10 +4235,10 @@
         <v>63</v>
       </c>
       <c r="J21" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>144</v>
       </c>
@@ -4437,10 +4264,10 @@
         <v>150</v>
       </c>
       <c r="J22" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>151</v>
       </c>
@@ -4469,34 +4296,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J24" s="5" t="b">
+      <c r="J24" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -4509,220 +4335,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Tabelle10"/>
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>_xll.DBListFetch(B1,"",au_idLookup)</f>
-        <v>Env:MSSQL, (last result:)Retrieved 23 records from: SELECT T1.au_lname + ' ' + T1.au_fname au_id,T1.au_id FROM pubs.dbo.authors T1 ORDER BY T1.au_lname</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1" t="str">
-        <f>_xll.DBListFetch(D1,"",title_idLookup)</f>
-        <v>Env:MSSQL, (last result:)Retrieved 17 records from: SELECT title,title_id FROM pubs.dbo.titles ORDER BY title</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>441</v>
-      </c>
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>442</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>446</v>
-      </c>
-      <c r="B17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>447</v>
-      </c>
-      <c r="B18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>448</v>
-      </c>
-      <c r="B19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>449</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>450</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>451</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>452</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>453</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD134784-0593-4A30-A7DE-A828677A326F}">
   <sheetPr codeName="Tabelle11"/>
   <dimension ref="A1:D18"/>
@@ -4736,189 +4348,542 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBListFetch(B1,"",stor_idLookup)</f>
-        <v>Env:MSSQL, (last result:)Retrieved 6 records from: SELECT stor_name,stor_id FROM pubs.dbo.stores ORDER BY stor_name</v>
+        <v>Env:Dev, (last result:)Retrieved 6 records from: SELECT stor_name,stor_id FROM pubs.dbo.stores ORDER BY stor_name</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C1" t="str">
         <f>_xll.DBListFetch(D1,"",title_idLookup)</f>
-        <v>Env:MSSQL, (last result:)Retrieved 17 records from: SELECT title,title_id FROM pubs.dbo.titles ORDER BY title</v>
+        <v>Env:Dev, (last result:)Retrieved 17 records from: SELECT title,title_id FROM pubs.dbo.titles ORDER BY title</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
         <v>163</v>
       </c>
-      <c r="B2" t="s">
-        <v>164</v>
-      </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>528</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
         <v>165</v>
       </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
       <c r="C4" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
         <v>169</v>
       </c>
-      <c r="B5" t="s">
-        <v>170</v>
-      </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
         <v>171</v>
       </c>
-      <c r="B6" t="s">
-        <v>172</v>
-      </c>
       <c r="C6" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
         <v>173</v>
       </c>
-      <c r="B7" t="s">
-        <v>174</v>
-      </c>
       <c r="C7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D8" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="D9" t="s">
-        <v>404</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D10" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D11" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D14" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D15" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D16" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D17" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D18" t="s">
-        <v>422</v>
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4776AAED-A7F2-4A4E-A358-65C2FF39238B}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>_xll.DBListFetch(B1,"",salesstor_idLookup)</f>
+        <v>Env:Dev, (last result:)Retrieved 6 records from: SELECT LT.stor_name stor_id,LT.stor_id FROM pubs.dbo.stores LT ORDER BY stor_name</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1" t="str">
+        <f>_xll.DBListFetch(D1,"",salestitle_idLookup)</f>
+        <v>Env:Dev, (last result:)Retrieved 17 records from: SELECT LT.title title_id,LT.title_id FROM pubs.dbo.titles LT ORDER BY title</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xll.DBListFetch(F1,"",royschedtitle_idLookup)</f>
+        <v>Env:Dev, (last result:)Retrieved 17 records from: SELECT LT.title+'/'+p.pub_name AS title_id,LT.title_id FROM pubs.dbo.titles LT LEFT JOIN pubs.dbo.publishers p ON LT.pub_id = p.pub_id ORDER BY LT.title</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xll.DBListFetch(H1,"",discountsstor_idLookup)</f>
+        <v>Env:Dev, (last result:)Retrieved 6 records from: SELECT LT.stor_name stor_id,LT.stor_id FROM pubs.dbo.stores LT ORDER BY stor_name</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>533</v>
+      </c>
+      <c r="D9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E9" t="s">
+        <v>540</v>
+      </c>
+      <c r="F9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" t="s">
+        <v>412</v>
+      </c>
+      <c r="E17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E18" t="s">
+        <v>413</v>
+      </c>
+      <c r="F18" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -4931,656 +4896,655 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= False, ): SELECT T2.stor_name AS stor_idLU, T1.ord_num, T1.ord_date, T1.qty, T1.payterms, T7.title AS title_idLU_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Set OLEDB; ListObject to (bgQuery= False, ): SELECT T2.stor_name stor_idLU, T1.ord_num, T4.title title_idLU, T1.ord_date, T1.qty, T1.payterms_x000D_
 FROM pubs.dbo.sales T1 INNER JOIN _x000D_
 pubs.dbo.stores T2 ON T1.stor_id = T2.stor_id INNER JOIN _x000D_
-pubs.dbo.titles T7 ON T1.title_id = T7.title_id_x000D_
+pubs.dbo.titles T4 ON T1.title_id = T4.title_id_x000D_
 </v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>423</v>
+        <v>498</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D2" s="4">
+        <v>499</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" s="5">
         <v>34591</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>511</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>6380</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>BU1032</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3" s="4">
+        <v>501</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="6">
         <v>34590</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>6380</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>PS2091</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D4" s="4">
-        <v>34591</v>
-      </c>
-      <c r="E4" s="2">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>513</v>
+        <v>534</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="6">
+        <v>34113</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7066</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>PS1372</v>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
+        <v>PC8888</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D5" s="4">
+        <v>503</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" s="6">
         <v>34590</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>75</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7066</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>PS2091</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D6" s="4">
+        <v>505</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" s="6">
         <v>34591</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7067</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>PS2091</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D7" s="4">
+        <v>506</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" s="6">
         <v>33770</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7067</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>TC3218</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D8" s="4">
+        <v>506</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" s="6">
         <v>33770</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>20</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7067</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>TC4203</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D9" s="4">
+        <v>506</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" s="6">
         <v>33770</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7067</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>TC7777</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D10" s="4">
+        <v>507</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="6">
         <v>34591</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7131</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>PS2091</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D11" s="4">
+        <v>508</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" s="6">
         <v>34591</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>25</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7131</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>MC3021</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D12" s="4">
+        <v>509</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E12" s="6">
         <v>34118</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>20</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7131</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>PS1372</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D13" s="4">
+        <v>509</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E13" s="6">
         <v>34118</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>25</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7131</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>PS2106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D14" s="4">
+        <v>509</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14" s="6">
         <v>34118</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>15</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7131</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>PS3333</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D15" s="4">
+        <v>509</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E15" s="6">
         <v>34118</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>25</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7131</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>PS7777</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D16" s="4">
+        <v>510</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E16" s="6">
         <v>34270</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>15</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7896</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>BU7832</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D17" s="4">
+        <v>511</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E17" s="6">
         <v>34315</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>10</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7896</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>MC2222</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D18" s="4">
+        <v>512</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E18" s="6">
         <v>34021</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>35</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>7896</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>BU2075</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D19" s="4">
+        <v>535</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E19" s="6">
         <v>34591</v>
       </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>515</v>
+      <c r="F19" s="2">
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>8042</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>BU1032</v>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D20" s="4">
-        <v>33770</v>
-      </c>
-      <c r="E20" s="2">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2" t="s">
         <v>513</v>
       </c>
+      <c r="D20" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E20" s="6">
+        <v>34591</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>8042</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>PC1035</v>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1032</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D21" s="4">
+        <v>514</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E21" s="6">
         <v>34039</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>25</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>8042</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>BU1111</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D22" s="4">
-        <v>34111</v>
-      </c>
-      <c r="E22" s="2">
+        <v>515</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E22" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F22" s="2">
         <v>30</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[stor_idLU]],salesstor_idLookup,2,FALSE)),"")</f>
         <v>8042</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
+        <f>IF(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_110[[#This Row],[title_idLU]],salestitle_idLookup,2,FALSE)),"")</f>
         <v>PC1035</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B22" xr:uid="{8ECD8426-8305-44ED-83F2-1DEEEAD434CF}">
-      <formula1>OFFSET(stor_idLookup,0,0,,1)</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B22" xr:uid="{FF9EBFC7-565F-45F6-AEDF-E35A489C5852}">
+      <formula1>OFFSET(salesstor_idLookup,0,0,,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G22" xr:uid="{2FB67108-3B05-4FBD-BAF8-CCD3CD3AC9A6}">
-      <formula1>OFFSET(title_idLookup,0,0,,1)</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D22" xr:uid="{C85C0726-F484-409A-BCE1-82BDEAD4FCD5}">
+      <formula1>OFFSET(salestitle_idLookup,0,0,,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5595,8 +5559,8 @@
   <sheetPr codeName="Tabelle13"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5606,47 +5570,47 @@
     <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT isnull(T2.au_lname + ' ' + T2.au_fname, T1.au_id) au_idLU, T3.title AS title_idLU, T1.au_ord, T1.royaltyper_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT isnull(T2.au_lname + ' ' + T2.au_fname, T1.au_id) au_idLU, T3.title AS title_idLU, T1.au_ord, T1.royaltyper_x000D_
 FROM pubs.dbo.titleauthor T1 LEFT JOIN _x000D_
 pubs.dbo.authors T2 ON T1.au_id = T2.au_id LEFT JOIN _x000D_
 pubs.dbo.titles T3 ON T1.title_id = T3.title_id_x000D_
 </v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -5665,10 +5629,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -5687,10 +5651,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -5709,10 +5673,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -5731,10 +5695,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -5753,10 +5717,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -5775,10 +5739,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -5797,10 +5761,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -5819,10 +5783,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -5841,10 +5805,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -5863,10 +5827,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>457</v>
+        <v>533</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -5880,15 +5844,15 @@
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>PS7777</v>
+        <v>PC9999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -5898,113 +5862,113 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>648-92-1872</v>
+        <v>486-29-1786</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>TC4203</v>
+        <v>PS7777</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>672-71-3249</v>
+        <v>648-92-1872</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>TC7777</v>
+        <v>TC4203</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>712-45-1867</v>
+        <v>672-71-3249</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>MC2222</v>
+        <v>TC7777</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>722-51-5454</v>
+        <v>712-45-1867</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>MC3021</v>
+        <v>MC2222</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>724-80-9391</v>
+        <v>722-51-5454</v>
       </c>
       <c r="G17" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>BU1111</v>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
@@ -6012,25 +5976,25 @@
       </c>
       <c r="G18" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>PS1372</v>
+        <v>BU1111</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>756-30-7391</v>
+        <v>724-80-9391</v>
       </c>
       <c r="G19" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
@@ -6039,82 +6003,82 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F20" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>807-91-6654</v>
+        <v>756-30-7391</v>
       </c>
       <c r="G20" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>TC3218</v>
+        <v>PS1372</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F21" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>846-92-7186</v>
+        <v>807-91-6654</v>
       </c>
       <c r="G21" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>PC8888</v>
+        <v>TC3218</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
       </c>
       <c r="E22" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>899-46-2035</v>
+        <v>846-92-7186</v>
       </c>
       <c r="G22" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>MC3021</v>
+        <v>PC8888</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
       </c>
       <c r="E23" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
@@ -6122,25 +6086,25 @@
       </c>
       <c r="G23" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>PS2091</v>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2">
         <v>50</v>
       </c>
       <c r="F24" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>998-72-3567</v>
+        <v>899-46-2035</v>
       </c>
       <c r="G24" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
@@ -6149,16 +6113,16 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
@@ -6166,15 +6130,15 @@
       </c>
       <c r="G25" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>PS2106</v>
+        <v>PS2091</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>542</v>
+        <v>439</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -6182,13 +6146,13 @@
       <c r="E26" s="2">
         <v>100</v>
       </c>
-      <c r="F26" s="2" t="e">
+      <c r="F26" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[au_idLU]],au_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+        <v>998-72-3567</v>
       </c>
       <c r="G26" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_18[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>PS3333</v>
+        <v>PS2106</v>
       </c>
     </row>
   </sheetData>
@@ -6220,89 +6184,89 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="str">
         <f>_xll.DBListFetch(C1,"",pub_idLookup)</f>
-        <v>Env:MSSQL, (last result:)Retrieved 8 records from: SELECT pub_name,pub_id FROM pubs.dbo.publishers ORDER BY pub_name</v>
+        <v>Env:Dev, (last result:)Retrieved 8 records from: SELECT pub_name,pub_id FROM pubs.dbo.publishers ORDER BY pub_name</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6338,60 +6302,60 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.title_id, T1.title, T1.type, T5.pub_name AS pub_idLU, T1.price, T1.advance, T1.royalty, T1.ytd_sales, T1.notes, T1.pubdate_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.title_id, T1.title, T1.type, T5.pub_name AS pub_idLU, T1.price, T1.advance, T1.royalty, T1.ytd_sales, T1.notes, T1.pubdate_x000D_
 FROM pubs.dbo.titles T1 LEFT JOIN _x000D_
 pubs.dbo.publishers T5 ON T1.pub_id = T5.pub_id_x000D_
 </v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F2" s="3">
         <v>19.989999999999998</v>
@@ -6406,7 +6370,7 @@
         <v>4095</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K2" s="4">
         <v>33401</v>
@@ -6418,16 +6382,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F3" s="2">
         <v>11.95</v>
@@ -6442,7 +6406,7 @@
         <v>3876</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K3" s="4">
         <v>33398</v>
@@ -6454,16 +6418,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F4" s="2">
         <v>2.99</v>
@@ -6478,7 +6442,7 @@
         <v>18722</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="K4" s="4">
         <v>33419</v>
@@ -6490,16 +6454,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F5" s="2">
         <v>19.989999999999998</v>
@@ -6514,7 +6478,7 @@
         <v>4095</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="K5" s="4">
         <v>33411</v>
@@ -6526,16 +6490,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F6" s="2">
         <v>19.989999999999998</v>
@@ -6550,7 +6514,7 @@
         <v>2032</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K6" s="4">
         <v>33398</v>
@@ -6562,16 +6526,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F7" s="2">
         <v>2.99</v>
@@ -6586,7 +6550,7 @@
         <v>22246</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K7" s="4">
         <v>33407</v>
@@ -6598,16 +6562,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F8" s="2">
         <v>22.95</v>
@@ -6622,7 +6586,7 @@
         <v>8780</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K8" s="4">
         <v>33419</v>
@@ -6634,16 +6598,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -6658,7 +6622,7 @@
         <v>4095</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K9" s="4">
         <v>34497</v>
@@ -6670,106 +6634,100 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>394</v>
+        <v>532</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>455</v>
+        <v>533</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F10" s="2">
-        <v>21.59</v>
-      </c>
-      <c r="G10" s="2">
-        <v>7000</v>
-      </c>
-      <c r="H10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" s="2">
-        <v>375</v>
-      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="K10" s="4">
-        <v>33532</v>
+        <v>43675.388807870368</v>
       </c>
       <c r="L10" s="4" t="str">
         <f>IF(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F11" s="2">
-        <v>10.95</v>
+        <v>21.59</v>
       </c>
       <c r="G11" s="2">
-        <v>2275</v>
+        <v>7000</v>
       </c>
       <c r="H11" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" s="2">
-        <v>2045</v>
+        <v>375</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="K11" s="4">
-        <v>33404</v>
+        <v>33532</v>
       </c>
       <c r="L11" s="4" t="str">
         <f>IF(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F12" s="2">
-        <v>7</v>
+        <v>10.95</v>
       </c>
       <c r="G12" s="2">
-        <v>6000</v>
+        <v>2275</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2">
-        <v>111</v>
+        <v>2045</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="K12" s="4">
-        <v>33516</v>
+        <v>33404</v>
       </c>
       <c r="L12" s="4" t="str">
         <f>IF(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -6778,34 +6736,34 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F13" s="2">
-        <v>19.989999999999998</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="H13" s="2">
         <v>10</v>
       </c>
       <c r="I13" s="2">
-        <v>4072</v>
+        <v>111</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="K13" s="4">
-        <v>33401</v>
+        <v>33516</v>
       </c>
       <c r="L13" s="4" t="str">
         <f>IF(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -6814,31 +6772,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F14" s="2">
-        <v>7.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G14" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="2">
         <v>10</v>
       </c>
       <c r="I14" s="2">
-        <v>3336</v>
+        <v>4072</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="K14" s="4">
         <v>33401</v>
@@ -6850,80 +6808,88 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F15" s="2">
-        <v>20.95</v>
+        <v>7.99</v>
       </c>
       <c r="G15" s="2">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="H15" s="2">
         <v>10</v>
       </c>
       <c r="I15" s="2">
-        <v>375</v>
+        <v>3336</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="K15" s="4">
-        <v>33532</v>
+        <v>33401</v>
       </c>
       <c r="L15" s="4" t="str">
         <f>IF(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>528</v>
+        <v>398</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>529</v>
+        <v>453</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20.95</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2">
+        <v>375</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="K16" s="4">
         <v>33532</v>
       </c>
       <c r="L16" s="4" t="str">
         <f>IF(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9901</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F17" s="2">
         <v>11.95</v>
@@ -6938,10 +6904,10 @@
         <v>15096</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K17" s="4">
-        <v>33532</v>
+        <v>33401</v>
       </c>
       <c r="L17" s="4" t="str">
         <f>IF(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_19[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -6950,16 +6916,16 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F18" s="2">
         <v>14.99</v>
@@ -6974,7 +6940,7 @@
         <v>4095</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="K18" s="4">
         <v>33401</v>
@@ -7012,7 +6978,7 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBListFetch(B1,"",stor_idLookup)</f>
-        <v>Env:MSSQL, (last result:)Retrieved 6 records from: SELECT stor_name,stor_id FROM pubs.dbo.stores ORDER BY stor_name</v>
+        <v>Env:Dev, (last result:)Retrieved 6 records from: SELECT stor_name,stor_id FROM pubs.dbo.stores ORDER BY stor_name</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>161</v>
@@ -7024,123 +6990,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.discounttype, T3.stor_name AS stor_idLU, T1.lowqty, T1.highqty, T1.discount_x000D_
-FROM pubs.dbo.discounts T1 LEFT JOIN _x000D_
-pubs.dbo.stores T3 ON T1.stor_id = T3.stor_id_x000D_
-</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="G2" s="3" t="str">
-        <f>IF(Tabelle_ExterneDaten_13[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_13[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_13[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_13[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f>IF(Tabelle_ExterneDaten_13[[#This Row],[stor_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_13[[#This Row],[stor_idLU]],stor_idLookup,2,FALSE),"")</f>
-        <v>8042</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>OFFSET(stor_idLookup,0,0,,1)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle4"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7149,22 +7001,22 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBListFetch(B1,"",job_idLookup)</f>
-        <v>Env:MSSQL, (last result:)Retrieved 14 records from: SELECT job_desc,job_id FROM  pubs.dbo.jobs ORDER BY job_desc DESC</v>
+        <v>Env:Dev, (last result:)Retrieved 15 records from: SELECT job_desc,job_id FROM  pubs.dbo.jobs ORDER BY job_desc DESC</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C1" t="str">
         <f>_xll.DBListFetch(D1,"",pub_idLookup)</f>
-        <v>Env:MSSQL, (last result:)Retrieved 8 records from: SELECT pub_name,pub_id FROM  pubs.dbo.publishers ORDER BY pub_name DESC</v>
+        <v>Env:Dev, (last result:)Retrieved 8 records from: SELECT pub_name,pub_id FROM  pubs.dbo.publishers ORDER BY pub_name DESC</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -7172,7 +7024,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -7180,7 +7032,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -7188,7 +7040,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -7196,7 +7048,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -7204,7 +7056,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7212,7 +7064,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7220,7 +7072,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -7228,7 +7080,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -7236,7 +7088,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -7244,7 +7096,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -7252,7 +7104,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -7260,7 +7112,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -7268,9 +7120,17 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>523</v>
       </c>
       <c r="B15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
     </row>
@@ -7279,13 +7139,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle5"/>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7305,64 +7165,64 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.emp_id, T1.fname, T1.minit, T1.lname, T6.job_desc AS job_idLU, T1.job_lvl, T8.pub_name AS pub_idLU_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.emp_id, T1.fname, T1.minit, T1.lname, T6.job_desc AS job_idLU, T1.job_lvl, T8.pub_name AS pub_idLU_x000D_
 FROM pubs.dbo.employee T1 INNER JOIN _x000D_
 pubs.dbo.jobs T6 ON T1.job_id = T6.job_id INNER JOIN _x000D_
 pubs.dbo.publishers T8 ON T1.pub_id = T8.pub_id_x000D_
 </v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G2" s="3">
         <v>77</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I2" s="3">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
@@ -7375,25 +7235,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G3" s="2">
         <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I3" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
@@ -7406,29 +7266,29 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>228</v>
+        <v>524</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G4" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I4" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7437,58 +7297,60 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G5" s="2">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I5" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G6" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I6" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7497,29 +7359,27 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G7" s="2">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I7" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7528,58 +7388,58 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G8" s="2">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I8" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9952</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>248</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G9" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I9" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7588,122 +7448,122 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G10" s="2">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="I10" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J10" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>9952</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G11" s="2">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I11" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9952</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>190</v>
       </c>
       <c r="G12" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="I12" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>9952</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>260</v>
+        <v>526</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>261</v>
+        <v>527</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>262</v>
+        <v>528</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>263</v>
+        <v>529</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G13" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I13" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J13" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -7712,612 +7572,612 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G14" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I14" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J14" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G15" s="2">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>204</v>
       </c>
       <c r="I15" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>532</v>
+        <v>256</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>534</v>
+        <v>259</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G16" s="2">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I16" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G17" s="2">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I17" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J17" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>276</v>
+        <v>517</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>278</v>
+        <v>519</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G18" s="2">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I18" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G19" s="2">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I19" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J19" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G20" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I20" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J20" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G21" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="I21" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9901</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G22" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I22" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J22" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G23" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I23" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>9901</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G24" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I24" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J24" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G25" s="2">
         <v>77</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I25" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J25" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G26" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I26" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J26" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E27" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G27" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>204</v>
       </c>
       <c r="I27" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J27" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G28" s="2">
+        <v>150</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="I28" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J28" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1622</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G29" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I29" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J29" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>535</v>
+        <v>304</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G30" s="2">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I30" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G31" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I31" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>324</v>
+        <v>520</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G32" s="2">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I32" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J32" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G33" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I33" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -8326,85 +8186,85 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G34" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>206</v>
       </c>
       <c r="I34" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J34" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G35" s="2">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I35" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J35" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1756</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>336</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G36" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="I36" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
@@ -8412,121 +8272,125 @@
       </c>
       <c r="J36" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G37" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I37" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J37" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G38" s="2">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="I38" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J38" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G39" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I39" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>9999</v>
+        <v>0877</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>536</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>538</v>
+        <v>335</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G40" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I40" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -8535,91 +8399,89 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>254</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G41" s="2">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I41" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J41" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G42" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I42" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J42" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>1389</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G43" s="2">
         <v>78</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I43" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -8628,60 +8490,60 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G44" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I44" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J44" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0736</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G45" s="2">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I45" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J45" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
@@ -8690,56 +8552,56 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>539</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>530</v>
+        <v>351</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>540</v>
+        <v>352</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G46" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I46" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J46" s="2" t="str">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
-        <v>0877</v>
+        <v>0736</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G47" s="2">
         <v>170</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I47" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
@@ -8752,25 +8614,25 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G48" s="2">
         <v>77</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I48" s="2">
         <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
@@ -8781,12 +8643,43 @@
         <v>0877</v>
       </c>
     </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I49" s="2">
+        <f>IF(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[job_idLU]],job_idLookup,2,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_14[[#This Row],[pub_idLU]],pub_idLookup,2,FALSE),"")</f>
+        <v>0877</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F48" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F49" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>OFFSET(job_idLookup,0,0,,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H48" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H49" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>OFFSET(pub_idLookup,0,0,,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8797,13 +8690,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Tabelle6"/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8819,32 +8712,32 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.job_id, T1.job_desc, T1.min_lvl, T1.max_lvl_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.job_id, T1.job_desc, T1.min_lvl, T1.max_lvl_x000D_
 FROM pubs.dbo.jobs T1_x000D_
 </v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3">
         <v>10</v>
@@ -8858,7 +8751,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
@@ -8872,7 +8765,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D4" s="2">
         <v>175</v>
@@ -8886,7 +8779,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2">
         <v>175</v>
@@ -8900,7 +8793,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D6" s="2">
         <v>150</v>
@@ -8914,7 +8807,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D7" s="2">
         <v>140</v>
@@ -8928,13 +8821,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D8" s="2">
         <v>120</v>
       </c>
       <c r="E8" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8942,7 +8835,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
@@ -8956,7 +8849,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D10" s="2">
         <v>75</v>
@@ -8970,7 +8863,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D11" s="2">
         <v>75</v>
@@ -8984,7 +8877,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D12" s="2">
         <v>75</v>
@@ -8998,7 +8891,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2">
         <v>25</v>
@@ -9012,7 +8905,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D14" s="2">
         <v>25</v>
@@ -9026,13 +8919,27 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D15" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D16" s="2">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9043,7 +8950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:F9"/>
@@ -9066,15 +8973,15 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.pub_id, T1.pub_name, T1.city, T1.state, T1.country_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.pub_id, T1.pub_name, T1.city, T1.state, T1.country_x000D_
 FROM pubs.dbo.publishers T1_x000D_
 </v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -9083,52 +8990,52 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -9137,88 +9044,88 @@
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -9229,7 +9136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:B1"/>
@@ -9241,10 +9148,10 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBListFetch(B1,"",title_idLookup)</f>
-        <v>Env:MSSQL, (last result:)Retrieved 17 records from: SELECT T1.title+'/'+p.pub_name AS title_id,T1.title_id FROM pubs.dbo.titles T1 LEFT JOIN pubs.dbo.publishers p ON T1.pub_id = p.pub_id ORDER BY T1.title</v>
+        <v>Env:Dev, (last result:)Retrieved 17 records from: SELECT T1.title+'/'+p.pub_name AS title_id,T1.title_id FROM pubs.dbo.titles T1 LEFT JOIN pubs.dbo.publishers p ON T1.pub_id = p.pub_id ORDER BY T1.title</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -9252,28 +9159,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Tabelle9"/>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E61" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T2.title+'/'+p.pub_name AS title_idLU, T1.lorange, T1.hirange, T1.royalty_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T2.title+'/'+p.pub_name AS title_idLU, T1.lorange, T1.hirange, T1.royalty_x000D_
 FROM pubs.dbo.roysched T1 INNER JOIN _x000D_
 pubs.dbo.titles T2 ON T1.title_id = T2.title_id LEFT JOIN _x000D_
 pubs.dbo.publishers p ON T2.pub_id = p.pub_id_x000D_
@@ -9281,27 +9191,27 @@
 </v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -9312,9 +9222,9 @@
       <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F2" s="3" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1032</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9323,7 +9233,7 @@
         <v xml:space="preserve">WHERE T1.lorange &gt;  and T1.hirange &lt; </v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C3" s="2">
         <v>5001</v>
@@ -9334,14 +9244,14 @@
       <c r="E3" s="2">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F3" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1032</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -9352,14 +9262,14 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F4" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PC1035</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C5" s="2">
         <v>2001</v>
@@ -9370,14 +9280,14 @@
       <c r="E5" s="2">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F5" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PC1035</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C6" s="2">
         <v>3001</v>
@@ -9388,14 +9298,14 @@
       <c r="E6" s="2">
         <v>14</v>
       </c>
-      <c r="F6" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F6" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PC1035</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C7" s="2">
         <v>4001</v>
@@ -9406,14 +9316,14 @@
       <c r="E7" s="2">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F7" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PC1035</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C8" s="2">
         <v>10001</v>
@@ -9424,14 +9334,14 @@
       <c r="E8" s="2">
         <v>18</v>
       </c>
-      <c r="F8" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F8" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PC1035</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -9442,14 +9352,14 @@
       <c r="E9" s="2">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F9" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU2075</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C10" s="2">
         <v>1001</v>
@@ -9460,14 +9370,14 @@
       <c r="E10" s="2">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F10" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU2075</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C11" s="2">
         <v>3001</v>
@@ -9478,14 +9388,14 @@
       <c r="E11" s="2">
         <v>14</v>
       </c>
-      <c r="F11" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F11" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU2075</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C12" s="2">
         <v>5001</v>
@@ -9496,14 +9406,14 @@
       <c r="E12" s="2">
         <v>16</v>
       </c>
-      <c r="F12" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F12" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU2075</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C13" s="2">
         <v>7001</v>
@@ -9514,14 +9424,14 @@
       <c r="E13" s="2">
         <v>18</v>
       </c>
-      <c r="F13" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F13" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU2075</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C14" s="2">
         <v>10001</v>
@@ -9532,14 +9442,14 @@
       <c r="E14" s="2">
         <v>20</v>
       </c>
-      <c r="F14" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F14" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU2075</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C15" s="2">
         <v>12001</v>
@@ -9550,14 +9460,14 @@
       <c r="E15" s="2">
         <v>22</v>
       </c>
-      <c r="F15" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F15" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU2075</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C16" s="2">
         <v>14001</v>
@@ -9568,14 +9478,14 @@
       <c r="E16" s="2">
         <v>24</v>
       </c>
-      <c r="F16" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F16" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU2075</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -9586,14 +9496,14 @@
       <c r="E17" s="2">
         <v>10</v>
       </c>
-      <c r="F17" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F17" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS2091</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C18" s="2">
         <v>1001</v>
@@ -9604,14 +9514,14 @@
       <c r="E18" s="2">
         <v>12</v>
       </c>
-      <c r="F18" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F18" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS2091</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C19" s="2">
         <v>5001</v>
@@ -9622,14 +9532,14 @@
       <c r="E19" s="2">
         <v>14</v>
       </c>
-      <c r="F19" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F19" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS2091</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C20" s="2">
         <v>10001</v>
@@ -9640,14 +9550,14 @@
       <c r="E20" s="2">
         <v>16</v>
       </c>
-      <c r="F20" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F20" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS2091</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -9658,14 +9568,14 @@
       <c r="E21" s="2">
         <v>10</v>
       </c>
-      <c r="F21" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F21" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS2106</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C22" s="2">
         <v>2001</v>
@@ -9676,14 +9586,14 @@
       <c r="E22" s="2">
         <v>12</v>
       </c>
-      <c r="F22" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F22" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS2106</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C23" s="2">
         <v>5001</v>
@@ -9694,14 +9604,14 @@
       <c r="E23" s="2">
         <v>14</v>
       </c>
-      <c r="F23" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F23" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS2106</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C24" s="2">
         <v>10001</v>
@@ -9712,14 +9622,14 @@
       <c r="E24" s="2">
         <v>16</v>
       </c>
-      <c r="F24" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F24" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS2106</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -9730,14 +9640,14 @@
       <c r="E25" s="2">
         <v>10</v>
       </c>
-      <c r="F25" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F25" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C26" s="2">
         <v>1001</v>
@@ -9748,14 +9658,14 @@
       <c r="E26" s="2">
         <v>12</v>
       </c>
-      <c r="F26" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F26" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C27" s="2">
         <v>2001</v>
@@ -9766,14 +9676,14 @@
       <c r="E27" s="2">
         <v>14</v>
       </c>
-      <c r="F27" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F27" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C28" s="2">
         <v>4001</v>
@@ -9784,14 +9694,14 @@
       <c r="E28" s="2">
         <v>16</v>
       </c>
-      <c r="F28" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F28" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C29" s="2">
         <v>6001</v>
@@ -9802,14 +9712,14 @@
       <c r="E29" s="2">
         <v>18</v>
       </c>
-      <c r="F29" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F29" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C30" s="2">
         <v>8001</v>
@@ -9820,14 +9730,14 @@
       <c r="E30" s="2">
         <v>20</v>
       </c>
-      <c r="F30" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F30" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C31" s="2">
         <v>10001</v>
@@ -9838,14 +9748,14 @@
       <c r="E31" s="2">
         <v>22</v>
       </c>
-      <c r="F31" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F31" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C32" s="2">
         <v>12001</v>
@@ -9856,14 +9766,14 @@
       <c r="E32" s="2">
         <v>24</v>
       </c>
-      <c r="F32" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F32" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC3021</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -9874,14 +9784,14 @@
       <c r="E33" s="2">
         <v>10</v>
       </c>
-      <c r="F33" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F33" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC3218</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C34" s="2">
         <v>2001</v>
@@ -9892,14 +9802,14 @@
       <c r="E34" s="2">
         <v>12</v>
       </c>
-      <c r="F34" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F34" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC3218</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C35" s="2">
         <v>4001</v>
@@ -9910,14 +9820,14 @@
       <c r="E35" s="2">
         <v>14</v>
       </c>
-      <c r="F35" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F35" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC3218</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C36" s="2">
         <v>6001</v>
@@ -9928,14 +9838,14 @@
       <c r="E36" s="2">
         <v>16</v>
       </c>
-      <c r="F36" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F36" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC3218</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C37" s="2">
         <v>8001</v>
@@ -9946,14 +9856,14 @@
       <c r="E37" s="2">
         <v>18</v>
       </c>
-      <c r="F37" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F37" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC3218</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C38" s="2">
         <v>10001</v>
@@ -9964,14 +9874,14 @@
       <c r="E38" s="2">
         <v>20</v>
       </c>
-      <c r="F38" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F38" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC3218</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C39" s="2">
         <v>12001</v>
@@ -9982,14 +9892,14 @@
       <c r="E39" s="2">
         <v>22</v>
       </c>
-      <c r="F39" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F39" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC3218</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C40" s="2">
         <v>14001</v>
@@ -10000,14 +9910,14 @@
       <c r="E40" s="2">
         <v>24</v>
       </c>
-      <c r="F40" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F40" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC3218</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -10018,14 +9928,14 @@
       <c r="E41" s="2">
         <v>10</v>
       </c>
-      <c r="F41" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F41" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PC8888</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C42" s="2">
         <v>5001</v>
@@ -10036,14 +9946,14 @@
       <c r="E42" s="2">
         <v>12</v>
       </c>
-      <c r="F42" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F42" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PC8888</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C43" s="2">
         <v>10001</v>
@@ -10054,14 +9964,14 @@
       <c r="E43" s="2">
         <v>14</v>
       </c>
-      <c r="F43" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F43" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PC8888</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C44" s="2">
         <v>15001</v>
@@ -10072,14 +9982,14 @@
       <c r="E44" s="2">
         <v>16</v>
       </c>
-      <c r="F44" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F44" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PC8888</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -10090,14 +10000,14 @@
       <c r="E45" s="2">
         <v>10</v>
       </c>
-      <c r="F45" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F45" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS7777</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2">
         <v>5001</v>
@@ -10108,14 +10018,14 @@
       <c r="E46" s="2">
         <v>12</v>
       </c>
-      <c r="F46" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F46" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS7777</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -10126,14 +10036,14 @@
       <c r="E47" s="2">
         <v>10</v>
       </c>
-      <c r="F47" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F47" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS3333</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2">
         <v>5001</v>
@@ -10144,14 +10054,14 @@
       <c r="E48" s="2">
         <v>12</v>
       </c>
-      <c r="F48" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F48" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS3333</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2">
         <v>10001</v>
@@ -10162,14 +10072,14 @@
       <c r="E49" s="2">
         <v>14</v>
       </c>
-      <c r="F49" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F49" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS3333</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2">
         <v>15001</v>
@@ -10180,14 +10090,14 @@
       <c r="E50" s="2">
         <v>16</v>
       </c>
-      <c r="F50" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F50" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS3333</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -10198,14 +10108,14 @@
       <c r="E51" s="2">
         <v>10</v>
       </c>
-      <c r="F51" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F51" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1111</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2">
         <v>4001</v>
@@ -10216,14 +10126,14 @@
       <c r="E52" s="2">
         <v>12</v>
       </c>
-      <c r="F52" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F52" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1111</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2">
         <v>8001</v>
@@ -10234,14 +10144,14 @@
       <c r="E53" s="2">
         <v>14</v>
       </c>
-      <c r="F53" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F53" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1111</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C54" s="2">
         <v>12001</v>
@@ -10252,14 +10162,14 @@
       <c r="E54" s="2">
         <v>16</v>
       </c>
-      <c r="F54" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F54" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1111</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C55" s="2">
         <v>16001</v>
@@ -10270,14 +10180,14 @@
       <c r="E55" s="2">
         <v>18</v>
       </c>
-      <c r="F55" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F55" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1111</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2">
         <v>20001</v>
@@ -10288,14 +10198,14 @@
       <c r="E56" s="2">
         <v>20</v>
       </c>
-      <c r="F56" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F56" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1111</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2">
         <v>24001</v>
@@ -10306,14 +10216,14 @@
       <c r="E57" s="2">
         <v>22</v>
       </c>
-      <c r="F57" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F57" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1111</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2">
         <v>28001</v>
@@ -10324,14 +10234,14 @@
       <c r="E58" s="2">
         <v>24</v>
       </c>
-      <c r="F58" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F58" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU1111</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -10342,14 +10252,14 @@
       <c r="E59" s="2">
         <v>10</v>
       </c>
-      <c r="F59" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F59" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC2222</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2">
         <v>2001</v>
@@ -10360,14 +10270,14 @@
       <c r="E60" s="2">
         <v>12</v>
       </c>
-      <c r="F60" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F60" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC2222</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C61" s="2">
         <v>4001</v>
@@ -10378,14 +10288,14 @@
       <c r="E61" s="2">
         <v>14</v>
       </c>
-      <c r="F61" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F61" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC2222</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2">
         <v>8001</v>
@@ -10396,14 +10306,14 @@
       <c r="E62" s="2">
         <v>16</v>
       </c>
-      <c r="F62" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F62" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC2222</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2">
         <v>12001</v>
@@ -10414,14 +10324,14 @@
       <c r="E63" s="2">
         <v>18</v>
       </c>
-      <c r="F63" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F63" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC2222</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C64" s="2">
         <v>20001</v>
@@ -10432,14 +10342,14 @@
       <c r="E64" s="2">
         <v>20</v>
       </c>
-      <c r="F64" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F64" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>MC2222</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -10450,14 +10360,14 @@
       <c r="E65" s="2">
         <v>10</v>
       </c>
-      <c r="F65" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F65" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC7777</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C66" s="2">
         <v>5001</v>
@@ -10468,14 +10378,14 @@
       <c r="E66" s="2">
         <v>12</v>
       </c>
-      <c r="F66" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F66" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC7777</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C67" s="2">
         <v>15001</v>
@@ -10486,14 +10396,14 @@
       <c r="E67" s="2">
         <v>14</v>
       </c>
-      <c r="F67" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F67" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC7777</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -10504,14 +10414,14 @@
       <c r="E68" s="2">
         <v>10</v>
       </c>
-      <c r="F68" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F68" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC4203</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C69" s="2">
         <v>2001</v>
@@ -10522,14 +10432,14 @@
       <c r="E69" s="2">
         <v>12</v>
       </c>
-      <c r="F69" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F69" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC4203</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C70" s="2">
         <v>8001</v>
@@ -10540,14 +10450,14 @@
       <c r="E70" s="2">
         <v>14</v>
       </c>
-      <c r="F70" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F70" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC4203</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C71" s="2">
         <v>16001</v>
@@ -10558,14 +10468,14 @@
       <c r="E71" s="2">
         <v>16</v>
       </c>
-      <c r="F71" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F71" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC4203</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C72" s="2">
         <v>24001</v>
@@ -10576,14 +10486,14 @@
       <c r="E72" s="2">
         <v>18</v>
       </c>
-      <c r="F72" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F72" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC4203</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C73" s="2">
         <v>32001</v>
@@ -10594,14 +10504,14 @@
       <c r="E73" s="2">
         <v>20</v>
       </c>
-      <c r="F73" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F73" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC4203</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C74" s="2">
         <v>40001</v>
@@ -10612,14 +10522,14 @@
       <c r="E74" s="2">
         <v>22</v>
       </c>
-      <c r="F74" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F74" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>TC4203</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -10630,14 +10540,14 @@
       <c r="E75" s="2">
         <v>10</v>
       </c>
-      <c r="F75" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F75" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU7832</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C76" s="2">
         <v>5001</v>
@@ -10648,14 +10558,14 @@
       <c r="E76" s="2">
         <v>12</v>
       </c>
-      <c r="F76" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F76" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU7832</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C77" s="2">
         <v>10001</v>
@@ -10666,14 +10576,14 @@
       <c r="E77" s="2">
         <v>14</v>
       </c>
-      <c r="F77" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F77" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU7832</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C78" s="2">
         <v>15001</v>
@@ -10684,14 +10594,14 @@
       <c r="E78" s="2">
         <v>16</v>
       </c>
-      <c r="F78" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F78" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU7832</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C79" s="2">
         <v>20001</v>
@@ -10702,14 +10612,14 @@
       <c r="E79" s="2">
         <v>18</v>
       </c>
-      <c r="F79" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F79" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU7832</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C80" s="2">
         <v>25001</v>
@@ -10720,14 +10630,14 @@
       <c r="E80" s="2">
         <v>20</v>
       </c>
-      <c r="F80" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F80" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU7832</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C81" s="2">
         <v>30001</v>
@@ -10738,14 +10648,14 @@
       <c r="E81" s="2">
         <v>22</v>
       </c>
-      <c r="F81" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F81" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU7832</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C82" s="2">
         <v>35001</v>
@@ -10756,14 +10666,14 @@
       <c r="E82" s="2">
         <v>24</v>
       </c>
-      <c r="F82" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F82" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>BU7832</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -10774,14 +10684,14 @@
       <c r="E83" s="2">
         <v>10</v>
       </c>
-      <c r="F83" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F83" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS1372</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C84" s="2">
         <v>10001</v>
@@ -10792,14 +10702,14 @@
       <c r="E84" s="2">
         <v>12</v>
       </c>
-      <c r="F84" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F84" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS1372</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C85" s="2">
         <v>20001</v>
@@ -10810,14 +10720,14 @@
       <c r="E85" s="2">
         <v>14</v>
       </c>
-      <c r="F85" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F85" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS1372</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C86" s="2">
         <v>30001</v>
@@ -10828,39 +10738,21 @@
       <c r="E86" s="2">
         <v>16</v>
       </c>
-      <c r="F86" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
+      <c r="F86" s="2" t="str">
+        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",IF(ISERROR(VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],royschedtitle_idLookup,2,FALSE)),"")</f>
+        <v>PS1372</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C87" s="2">
-        <v>40001</v>
-      </c>
-      <c r="D87" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E87" s="2">
-        <v>18</v>
-      </c>
-      <c r="F87" s="2" t="e">
-        <f>IF(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]]&lt;&gt;"",VLOOKUP(Tabelle_ExterneDaten_17[[#This Row],[title_idLU]],title_idLookup,2,FALSE),"")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B87" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>OFFSET(title_idLookup,0,0,,1)</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B86" xr:uid="{E2B9DBAF-BF74-43A9-B7D9-5E181865F734}">
+      <formula1>OFFSET(royschedtitle_idLookup,0,0,,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10870,25 +10762,227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Tabelle10"/>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>_xll.DBListFetch(B1,"",au_idLookup)</f>
+        <v>Env:Dev, (last result:)Retrieved 23 records from: SELECT T1.au_lname + ' ' + T1.au_fname au_id,T1.au_id FROM pubs.dbo.authors T1 ORDER BY T1.au_lname</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" t="str">
+        <f>_xll.DBListFetch(D1,"",title_idLookup)</f>
+        <v>Env:Dev, (last result:)Retrieved 17 records from: SELECT title,title_id FROM pubs.dbo.titles ORDER BY title</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>442</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>445</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <root xmlns="DBModifDef">
-  <DBMapperdiscounts>
+  <altDBImpl>True</altDBImpl>
+  <DBMapper Name="authors">
     <execOnSave>True</execOnSave>
     <askBeforeExecute>True</askBeforeExecute>
-    <env/>
-    <database>pubs</database>
-    <tableName>discounts</tableName>
-    <primKeysStr>1</primKeysStr>
-    <insertIfMissing>True</insertIfMissing>
-    <executeAdditionalProc/>
-    <ignoreColumns>stor_idLU</ignoreColumns>
-    <CUDFlags>True</CUDFlags>
-    <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMapperdiscounts>
-  <DBMapperauthors>
-    <execOnSave>True</execOnSave>
-    <askBeforeExecute>True</askBeforeExecute>
-    <env/>
+    <env>0</env>
     <database>pubs</database>
     <tableName>authors</tableName>
     <primKeysStr>1</primKeysStr>
@@ -10896,13 +10990,14 @@
     <executeAdditionalProc/>
     <ignoreColumns/>
     <CUDFlags>True</CUDFlags>
+    <AutoIncFlag>False</AutoIncFlag>
     <IgnoreDataErrors>False</IgnoreDataErrors>
     <confirmText/>
-  </DBMapperauthors>
-  <DBMapperemployee>
+  </DBMapper>
+  <DBMapper Name="employee">
     <execOnSave>True</execOnSave>
     <askBeforeExecute>True</askBeforeExecute>
-    <env/>
+    <env>0</env>
     <database>pubs</database>
     <tableName>employee</tableName>
     <primKeysStr>1</primKeysStr>
@@ -10910,12 +11005,14 @@
     <executeAdditionalProc/>
     <ignoreColumns>job_idLU,pub_idLU</ignoreColumns>
     <CUDFlags>True</CUDFlags>
+    <AutoIncFlag>False</AutoIncFlag>
     <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMapperemployee>
-  <DBMapperjobs>
+    <confirmText/>
+  </DBMapper>
+  <DBMapper Name="jobs">
     <execOnSave>True</execOnSave>
     <askBeforeExecute>True</askBeforeExecute>
-    <env/>
+    <env>0</env>
     <database>pubs</database>
     <tableName>jobs</tableName>
     <primKeysStr>1</primKeysStr>
@@ -10923,12 +11020,14 @@
     <executeAdditionalProc/>
     <ignoreColumns/>
     <CUDFlags>True</CUDFlags>
+    <AutoIncFlag>False</AutoIncFlag>
     <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMapperjobs>
-  <DBMapperpublishers>
+    <confirmText/>
+  </DBMapper>
+  <DBMapper Name="publishers">
     <execOnSave>True</execOnSave>
     <askBeforeExecute>True</askBeforeExecute>
-    <env/>
+    <env>0</env>
     <database>pubs</database>
     <tableName>publishers</tableName>
     <primKeysStr>1</primKeysStr>
@@ -10936,12 +11035,57 @@
     <executeAdditionalProc/>
     <ignoreColumns/>
     <CUDFlags>True</CUDFlags>
+    <AutoIncFlag>False</AutoIncFlag>
     <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMapperpublishers>
-  <DBMapperroysched>
+    <confirmText/>
+  </DBMapper>
+  <DBMapper Name="titleauthor">
     <execOnSave>True</execOnSave>
     <askBeforeExecute>True</askBeforeExecute>
-    <env/>
+    <env>0</env>
+    <database>pubs</database>
+    <tableName>titleauthor</tableName>
+    <primKeysStr>2</primKeysStr>
+    <insertIfMissing>True</insertIfMissing>
+    <executeAdditionalProc/>
+    <ignoreColumns>au_idLU,title_idLU</ignoreColumns>
+    <CUDFlags>True</CUDFlags>
+    <AutoIncFlag>False</AutoIncFlag>
+    <IgnoreDataErrors>False</IgnoreDataErrors>
+    <confirmText/>
+  </DBMapper>
+  <DBMapper Name="titles">
+    <execOnSave>True</execOnSave>
+    <askBeforeExecute>True</askBeforeExecute>
+    <env>0</env>
+    <database>pubs</database>
+    <tableName>titles</tableName>
+    <primKeysStr>1</primKeysStr>
+    <insertIfMissing>True</insertIfMissing>
+    <executeAdditionalProc/>
+    <ignoreColumns>pub_idLU</ignoreColumns>
+    <CUDFlags>True</CUDFlags>
+    <AutoIncFlag>False</AutoIncFlag>
+    <IgnoreDataErrors>False</IgnoreDataErrors>
+    <confirmText/>
+  </DBMapper>
+  <DBMapper Name="sales">
+    <execOnSave>True</execOnSave>
+    <askBeforeExecute>True</askBeforeExecute>
+    <env>0</env>
+    <database>pubs</database>
+    <tableName>sales</tableName>
+    <primKeysStr>3</primKeysStr>
+    <insertIfMissing>True</insertIfMissing>
+    <executeAdditionalProc/>
+    <ignoreColumns>stor_idLU,title_idLU</ignoreColumns>
+    <CUDFlags>True</CUDFlags>
+    <IgnoreDataErrors>False</IgnoreDataErrors>
+  </DBMapper>
+  <DBMapper Name="roysched">
+    <execOnSave>True</execOnSave>
+    <askBeforeExecute>True</askBeforeExecute>
+    <env>0</env>
     <database>pubs</database>
     <tableName>roysched</tableName>
     <primKeysStr>3</primKeysStr>
@@ -10950,51 +11094,12 @@
     <ignoreColumns>title_idLU</ignoreColumns>
     <CUDFlags>True</CUDFlags>
     <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMapperroysched>
-  <DBMappertitleauthor>
-    <execOnSave>True</execOnSave>
-    <askBeforeExecute>True</askBeforeExecute>
-    <env/>
-    <database>pubs</database>
-    <tableName>titleauthor</tableName>
-    <primKeysStr>2</primKeysStr>
-    <insertIfMissing>True</insertIfMissing>
-    <executeAdditionalProc/>
-    <ignoreColumns>au_idLU,title_idLU</ignoreColumns>
-    <CUDFlags>True</CUDFlags>
-    <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMappertitleauthor>
-  <DBMappertitles>
-    <execOnSave>True</execOnSave>
-    <askBeforeExecute>True</askBeforeExecute>
-    <env/>
-    <database>pubs</database>
-    <tableName>titles</tableName>
-    <primKeysStr>1</primKeysStr>
-    <insertIfMissing>True</insertIfMissing>
-    <executeAdditionalProc/>
-    <ignoreColumns>pub_idLU</ignoreColumns>
-    <CUDFlags>True</CUDFlags>
-    <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMappertitles>
-  <DBMapperpubs.dbo.sales>
-    <execOnSave>True</execOnSave>
-    <askBeforeExecute>True</askBeforeExecute>
-    <env/>
-    <database>pubs</database>
-    <tableName>pubs.dbo.sales</tableName>
-    <primKeysStr>1</primKeysStr>
-    <insertIfMissing>True</insertIfMissing>
-    <executeAdditionalProc/>
-    <ignoreColumns>stor_idLU,title_idLU</ignoreColumns>
-    <CUDFlags>True</CUDFlags>
-    <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMapperpubs.dbo.sales>
+  </DBMapper>
 </root>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{682CD28F-092F-4129-B17F-6BD178CC1DB0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AEB86FC-C543-4BEA-BE7A-E71AC5930AE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="DBModifDef"/>
   </ds:schemaRefs>
